--- a/Temp Enr.xlsx
+++ b/Temp Enr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lff\PycharmProjects\Juba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909531DC-C4C6-459F-A9E1-49BB3A4D272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E2068-2613-4DF7-A008-4D8009172BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78527978-3531-4B96-8F8C-349D3226EA3D}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:EK337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,566 +1254,566 @@
     </row>
     <row r="2" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f t="array" ref="A2:B16">_xll.PIAdvCalcDat(Planilha2!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"")</f>
+        <f t="array" ref="A2:B25">_xll.PIAdvCalcDat(Planilha2!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"")</f>
         <v>45139</v>
       </c>
       <c r="B2" s="3">
         <v>65.311986543032461</v>
       </c>
       <c r="C2" s="3">
-        <f t="array" ref="C2:C16">_xll.PIAdvCalcDat(Planilha2!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="C2:C25">_xll.PIAdvCalcDat(Planilha2!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>65.379337108622664</v>
       </c>
       <c r="D2" s="3">
-        <f t="array" ref="D2:D16">_xll.PIAdvCalcDat(Planilha2!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="D2:D25">_xll.PIAdvCalcDat(Planilha2!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.414674711699533</v>
       </c>
       <c r="E2" s="3">
-        <f t="array" ref="E2:E16">_xll.PIAdvCalcDat(Planilha2!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="E2:E25">_xll.PIAdvCalcDat(Planilha2!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.914892862042237</v>
       </c>
       <c r="F2" s="3">
-        <f t="array" ref="F2:F16">_xll.PIAdvCalcDat(Planilha2!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="F2:F25">_xll.PIAdvCalcDat(Planilha2!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.159260386635978</v>
       </c>
       <c r="G2" s="3">
-        <f t="array" ref="G2:G16">_xll.PIAdvCalcDat(Planilha2!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="G2:G25">_xll.PIAdvCalcDat(Planilha2!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.929815599496777</v>
       </c>
       <c r="H2" s="3">
-        <f t="array" ref="H2:H16">_xll.PIAdvCalcDat(Planilha2!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="H2:H25">_xll.PIAdvCalcDat(Planilha2!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.413917040148021</v>
       </c>
       <c r="I2" s="3">
-        <f t="array" ref="I2:I16">_xll.PIAdvCalcDat(Planilha2!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="I2:I25">_xll.PIAdvCalcDat(Planilha2!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.387335577380803</v>
       </c>
       <c r="J2" s="3">
-        <f t="array" ref="J2:J16">_xll.PIAdvCalcDat(Planilha2!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="J2:J25">_xll.PIAdvCalcDat(Planilha2!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.000410521082941</v>
       </c>
       <c r="K2" s="3">
-        <f t="array" ref="K2:K16">_xll.PIAdvCalcDat(Planilha2!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="K2:K25">_xll.PIAdvCalcDat(Planilha2!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.387992909993628</v>
       </c>
       <c r="L2" s="3">
-        <f t="array" ref="L2:L16">_xll.PIAdvCalcDat(Planilha2!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="L2:L25">_xll.PIAdvCalcDat(Planilha2!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.712279793627381</v>
       </c>
       <c r="M2" s="3">
-        <f t="array" ref="M2:M16">_xll.PIAdvCalcDat(Planilha2!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="M2:M25">_xll.PIAdvCalcDat(Planilha2!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.596509661930298</v>
       </c>
       <c r="N2" s="3">
-        <f t="array" ref="N2:N16">_xll.PIAdvCalcDat(Planilha2!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="N2:N25">_xll.PIAdvCalcDat(Planilha2!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.074864563700928</v>
       </c>
       <c r="O2" s="3">
-        <f t="array" ref="O2:O16">_xll.PIAdvCalcDat(Planilha2!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="O2:O25">_xll.PIAdvCalcDat(Planilha2!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>69.259284193420655</v>
       </c>
       <c r="P2" s="3">
-        <f t="array" ref="P2:P16">_xll.PIAdvCalcDat(Planilha2!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="P2:P25">_xll.PIAdvCalcDat(Planilha2!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.027774576460644</v>
       </c>
       <c r="Q2" s="3">
-        <f t="array" ref="Q2:Q16">_xll.PIAdvCalcDat(Planilha2!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Q2:Q25">_xll.PIAdvCalcDat(Planilha2!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.276356200299233</v>
       </c>
       <c r="R2" s="3">
-        <f t="array" ref="R2:R16">_xll.PIAdvCalcDat(Planilha2!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="R2:R25">_xll.PIAdvCalcDat(Planilha2!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.669674422862911</v>
       </c>
       <c r="S2" s="3">
-        <f t="array" ref="S2:S16">_xll.PIAdvCalcDat(Planilha2!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="S2:S25">_xll.PIAdvCalcDat(Planilha2!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.640992874254124</v>
       </c>
       <c r="T2" s="3">
-        <f t="array" ref="T2:T16">_xll.PIAdvCalcDat(Planilha2!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="T2:T25">_xll.PIAdvCalcDat(Planilha2!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.882867438709312</v>
       </c>
       <c r="U2" s="3">
-        <f t="array" ref="U2:U16">_xll.PIAdvCalcDat(Planilha2!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="U2:U25">_xll.PIAdvCalcDat(Planilha2!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.066155074678832</v>
       </c>
       <c r="V2" s="3">
-        <f t="array" ref="V2:V16">_xll.PIAdvCalcDat(Planilha2!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="V2:V25">_xll.PIAdvCalcDat(Planilha2!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.600731737503466</v>
       </c>
       <c r="W2" s="3">
-        <f t="array" ref="W2:W16">_xll.PIAdvCalcDat(Planilha2!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="W2:W25">_xll.PIAdvCalcDat(Planilha2!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.736650579657287</v>
       </c>
       <c r="X2" s="3">
-        <f t="array" ref="X2:X16">_xll.PIAdvCalcDat(Planilha2!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="X2:X25">_xll.PIAdvCalcDat(Planilha2!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.438986644829647</v>
       </c>
       <c r="Y2" s="3">
-        <f t="array" ref="Y2:Y16">_xll.PIAdvCalcDat(Planilha2!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Y2:Y25">_xll.PIAdvCalcDat(Planilha2!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.901621696554137</v>
       </c>
       <c r="Z2" s="3">
-        <f t="array" ref="Z2:Z16">_xll.PIAdvCalcDat(Planilha2!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Z2:Z25">_xll.PIAdvCalcDat(Planilha2!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.402551300048827</v>
       </c>
       <c r="AA2" s="3">
-        <f t="array" ref="AA2:AA16">_xll.PIAdvCalcDat(Planilha2!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AA2:AA25">_xll.PIAdvCalcDat(Planilha2!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.780470219095811</v>
       </c>
       <c r="AB2" s="3">
-        <f t="array" ref="AB2:AB16">_xll.PIAdvCalcDat(Planilha2!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AB2:AB25">_xll.PIAdvCalcDat(Planilha2!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>57.35454767400568</v>
       </c>
       <c r="AC2" s="3">
-        <f t="array" ref="AC2:AC16">_xll.PIAdvCalcDat(Planilha2!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AC2:AC25">_xll.PIAdvCalcDat(Planilha2!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.869343523738998</v>
       </c>
       <c r="AD2" s="3">
-        <f t="array" ref="AD2:AD16">_xll.PIAdvCalcDat(Planilha2!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AD2:AD25">_xll.PIAdvCalcDat(Planilha2!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.967182018632009</v>
       </c>
       <c r="AE2" s="3">
-        <f t="array" ref="AE2:AE16">_xll.PIAdvCalcDat(Planilha2!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AE2:AE25">_xll.PIAdvCalcDat(Planilha2!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.204339706984172</v>
       </c>
       <c r="AF2" s="3" t="str">
-        <f t="array" ref="AF2:AF16">_xll.PIAdvCalcDat(Planilha2!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AF2:AF25">_xll.PIAdvCalcDat(Planilha2!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AG2" s="3">
-        <f t="array" ref="AG2:AG16">_xll.PIAdvCalcDat(Planilha2!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AG2:AG25">_xll.PIAdvCalcDat(Planilha2!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>21.343008220321178</v>
       </c>
       <c r="AH2" s="3" t="str">
-        <f t="array" ref="AH2:AH16">_xll.PIAdvCalcDat(Planilha2!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AH2:AH25">_xll.PIAdvCalcDat(Planilha2!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AI2" s="3" t="str">
-        <f t="array" ref="AI2:AI16">_xll.PIAdvCalcDat(Planilha2!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AI2:AI25">_xll.PIAdvCalcDat(Planilha2!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AJ2" s="3" t="str">
-        <f t="array" ref="AJ2:AJ16">_xll.PIAdvCalcDat(Planilha2!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AJ2:AJ25">_xll.PIAdvCalcDat(Planilha2!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AK2" s="3">
-        <f t="array" ref="AK2:AK16">_xll.PIAdvCalcDat(Planilha2!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AK2:AK25">_xll.PIAdvCalcDat(Planilha2!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.751907023355031</v>
       </c>
       <c r="AL2" s="3">
-        <f t="array" ref="AL2:AL16">_xll.PIAdvCalcDat(Planilha2!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AL2:AL25">_xll.PIAdvCalcDat(Planilha2!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.357195611244286</v>
       </c>
       <c r="AM2" s="3">
-        <f t="array" ref="AM2:AM16">_xll.PIAdvCalcDat(Planilha2!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AM2:AM25">_xll.PIAdvCalcDat(Planilha2!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.399842331462104</v>
       </c>
       <c r="AN2" s="3">
-        <f t="array" ref="AN2:AN16">_xll.PIAdvCalcDat(Planilha2!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AN2:AN25">_xll.PIAdvCalcDat(Planilha2!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.113630562881504</v>
       </c>
       <c r="AO2" s="3">
-        <f t="array" ref="AO2:AO16">_xll.PIAdvCalcDat(Planilha2!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AO2:AO25">_xll.PIAdvCalcDat(Planilha2!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.455276176345713</v>
       </c>
       <c r="AP2" s="3" t="str">
-        <f t="array" ref="AP2:AP16">_xll.PIAdvCalcDat(Planilha2!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AP2:AP25">_xll.PIAdvCalcDat(Planilha2!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AQ2" s="3">
-        <f t="array" ref="AQ2:AQ16">_xll.PIAdvCalcDat(Planilha2!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AQ2:AQ25">_xll.PIAdvCalcDat(Planilha2!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.592347891434379</v>
       </c>
       <c r="AR2" s="3">
-        <f t="array" ref="AR2:AR16">_xll.PIAdvCalcDat(Planilha2!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AR2:AR25">_xll.PIAdvCalcDat(Planilha2!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.156951143551879</v>
       </c>
       <c r="AS2" s="3">
-        <f t="array" ref="AS2:AS16">_xll.PIAdvCalcDat(Planilha2!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AS2:AS25">_xll.PIAdvCalcDat(Planilha2!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.649013827773473</v>
       </c>
       <c r="AT2" s="3" t="str">
-        <f t="array" ref="AT2:AT16">_xll.PIAdvCalcDat(Planilha2!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AT2:AT25">_xll.PIAdvCalcDat(Planilha2!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AU2" s="3">
-        <f t="array" ref="AU2:AU16">_xll.PIAdvCalcDat(Planilha2!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AU2:AU25">_xll.PIAdvCalcDat(Planilha2!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.56527810165678</v>
       </c>
       <c r="AV2" s="3" t="str">
-        <f t="array" ref="AV2:AV16">_xll.PIAdvCalcDat(Planilha2!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AV2:AV25">_xll.PIAdvCalcDat(Planilha2!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AW2" s="3">
-        <f t="array" ref="AW2:AW16">_xll.PIAdvCalcDat(Planilha2!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AW2:AW25">_xll.PIAdvCalcDat(Planilha2!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.758936797228564</v>
       </c>
       <c r="AX2" s="3">
-        <f t="array" ref="AX2:AX16">_xll.PIAdvCalcDat(Planilha2!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AX2:AX25">_xll.PIAdvCalcDat(Planilha2!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.488076393008946</v>
       </c>
       <c r="AY2" s="3" t="str">
-        <f t="array" ref="AY2:AY16">_xll.PIAdvCalcDat(Planilha2!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AY2:AY25">_xll.PIAdvCalcDat(Planilha2!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AZ2" s="3">
-        <f t="array" ref="AZ2:AZ16">_xll.PIAdvCalcDat(Planilha2!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AZ2:AZ25">_xll.PIAdvCalcDat(Planilha2!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.012988286092877</v>
       </c>
       <c r="BA2" s="3">
-        <f t="array" ref="BA2:BA16">_xll.PIAdvCalcDat(Planilha2!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BA2:BA25">_xll.PIAdvCalcDat(Planilha2!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.843478264555266</v>
       </c>
       <c r="BB2" s="3">
-        <f t="array" ref="BB2:BB16">_xll.PIAdvCalcDat(Planilha2!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BB2:BB25">_xll.PIAdvCalcDat(Planilha2!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.858519242694847</v>
       </c>
       <c r="BC2" s="3">
-        <f t="array" ref="BC2:BC16">_xll.PIAdvCalcDat(Planilha2!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BC2:BC25">_xll.PIAdvCalcDat(Planilha2!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.247583998351537</v>
       </c>
       <c r="BD2" s="3">
-        <f t="array" ref="BD2:BD16">_xll.PIAdvCalcDat(Planilha2!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BD2:BD25">_xll.PIAdvCalcDat(Planilha2!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.608139773133644</v>
       </c>
       <c r="BE2" s="3">
-        <f t="array" ref="BE2:BE16">_xll.PIAdvCalcDat(Planilha2!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BE2:BE25">_xll.PIAdvCalcDat(Planilha2!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>18.911885345324141</v>
       </c>
       <c r="BF2" s="3">
-        <f t="array" ref="BF2:BF16">_xll.PIAdvCalcDat(Planilha2!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BF2:BF25">_xll.PIAdvCalcDat(Planilha2!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.298518495912909</v>
       </c>
       <c r="BG2" s="3">
-        <f t="array" ref="BG2:BG16">_xll.PIAdvCalcDat(Planilha2!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BG2:BG25">_xll.PIAdvCalcDat(Planilha2!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.279229632434031</v>
       </c>
       <c r="BH2" s="3">
-        <f t="array" ref="BH2:BH16">_xll.PIAdvCalcDat(Planilha2!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BH2:BH25">_xll.PIAdvCalcDat(Planilha2!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.965411315706248</v>
       </c>
       <c r="BI2" s="3">
-        <f t="array" ref="BI2:BI16">_xll.PIAdvCalcDat(Planilha2!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BI2:BI25">_xll.PIAdvCalcDat(Planilha2!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.918661236198794</v>
       </c>
       <c r="BJ2" s="3">
-        <f t="array" ref="BJ2:BJ16">_xll.PIAdvCalcDat(Planilha2!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BJ2:BJ25">_xll.PIAdvCalcDat(Planilha2!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.929798422525096</v>
       </c>
       <c r="BK2" s="3">
-        <f t="array" ref="BK2:BK16">_xll.PIAdvCalcDat(Planilha2!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BK2:BK25">_xll.PIAdvCalcDat(Planilha2!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.310389580664697</v>
       </c>
       <c r="BL2" s="3" t="str">
-        <f t="array" ref="BL2:BL16">_xll.PIAdvCalcDat(Planilha2!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BL2:BL25">_xll.PIAdvCalcDat(Planilha2!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BM2" s="3">
-        <f t="array" ref="BM2:BM16">_xll.PIAdvCalcDat(Planilha2!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BM2:BM25">_xll.PIAdvCalcDat(Planilha2!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>55.308965450036112</v>
       </c>
       <c r="BN2" s="3">
-        <f t="array" ref="BN2:BN16">_xll.PIAdvCalcDat(Planilha2!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BN2:BN25">_xll.PIAdvCalcDat(Planilha2!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.801954976097647</v>
       </c>
       <c r="BO2" s="3">
-        <f t="array" ref="BO2:BO16">_xll.PIAdvCalcDat(Planilha2!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BO2:BO25">_xll.PIAdvCalcDat(Planilha2!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.857851240529236</v>
       </c>
       <c r="BP2" s="3">
-        <f t="array" ref="BP2:BP16">_xll.PIAdvCalcDat(Planilha2!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BP2:BP25">_xll.PIAdvCalcDat(Planilha2!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>71.969277997333492</v>
       </c>
       <c r="BQ2" s="3">
-        <f t="array" ref="BQ2:BQ16">_xll.PIAdvCalcDat(Planilha2!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BQ2:BQ25">_xll.PIAdvCalcDat(Planilha2!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.668793848941199</v>
       </c>
       <c r="BR2" s="3">
-        <f t="array" ref="BR2:BR16">_xll.PIAdvCalcDat(Planilha2!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BR2:BR25">_xll.PIAdvCalcDat(Planilha2!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.617004074285063</v>
       </c>
       <c r="BS2" s="3">
-        <f t="array" ref="BS2:BS16">_xll.PIAdvCalcDat(Planilha2!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BS2:BS25">_xll.PIAdvCalcDat(Planilha2!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.920698509745314</v>
       </c>
       <c r="BT2" s="3">
-        <f t="array" ref="BT2:BT16">_xll.PIAdvCalcDat(Planilha2!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BT2:BT25">_xll.PIAdvCalcDat(Planilha2!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.058024483562619</v>
       </c>
       <c r="BU2" s="3">
-        <f t="array" ref="BU2:BU16">_xll.PIAdvCalcDat(Planilha2!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BU2:BU25">_xll.PIAdvCalcDat(Planilha2!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.127827599341543</v>
       </c>
       <c r="BV2" s="3" t="str">
-        <f t="array" ref="BV2:BV16">_xll.PIAdvCalcDat(Planilha2!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BV2:BV25">_xll.PIAdvCalcDat(Planilha2!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BW2" s="3">
-        <f t="array" ref="BW2:BW16">_xll.PIAdvCalcDat(Planilha2!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BW2:BW25">_xll.PIAdvCalcDat(Planilha2!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.997102826555199</v>
       </c>
       <c r="BX2" s="3">
-        <f t="array" ref="BX2:BX16">_xll.PIAdvCalcDat(Planilha2!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BX2:BX25">_xll.PIAdvCalcDat(Planilha2!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.642203285369199</v>
       </c>
       <c r="BY2" s="3">
-        <f t="array" ref="BY2:BY16">_xll.PIAdvCalcDat(Planilha2!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BY2:BY25">_xll.PIAdvCalcDat(Planilha2!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>39.219910892299524</v>
       </c>
       <c r="BZ2" s="3">
-        <f t="array" ref="BZ2:BZ16">_xll.PIAdvCalcDat(Planilha2!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BZ2:BZ25">_xll.PIAdvCalcDat(Planilha2!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.506183315187627</v>
       </c>
       <c r="CA2" s="3">
-        <f t="array" ref="CA2:CA16">_xll.PIAdvCalcDat(Planilha2!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CA2:CA25">_xll.PIAdvCalcDat(Planilha2!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.340994537517588</v>
       </c>
       <c r="CB2" s="3">
-        <f t="array" ref="CB2:CB16">_xll.PIAdvCalcDat(Planilha2!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CB2:CB25">_xll.PIAdvCalcDat(Planilha2!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.275564958820233</v>
       </c>
       <c r="CC2" s="3">
-        <f t="array" ref="CC2:CC16">_xll.PIAdvCalcDat(Planilha2!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CC2:CC25">_xll.PIAdvCalcDat(Planilha2!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.522602378966923</v>
       </c>
       <c r="CD2" s="3">
-        <f t="array" ref="CD2:CD16">_xll.PIAdvCalcDat(Planilha2!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CD2:CD25">_xll.PIAdvCalcDat(Planilha2!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.58321085006861</v>
       </c>
       <c r="CE2" s="3" t="str">
-        <f t="array" ref="CE2:CE16">_xll.PIAdvCalcDat(Planilha2!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CE2:CE25">_xll.PIAdvCalcDat(Planilha2!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="CF2" s="3">
-        <f t="array" ref="CF2:CF16">_xll.PIAdvCalcDat(Planilha2!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CF2:CF25">_xll.PIAdvCalcDat(Planilha2!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.117640923358699</v>
       </c>
       <c r="CG2" s="3">
-        <f t="array" ref="CG2:CG16">_xll.PIAdvCalcDat(Planilha2!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CG2:CG25">_xll.PIAdvCalcDat(Planilha2!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.207933656471212</v>
       </c>
       <c r="CH2" s="3">
-        <f t="array" ref="CH2:CH16">_xll.PIAdvCalcDat(Planilha2!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CH2:CH25">_xll.PIAdvCalcDat(Planilha2!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.752396585121382</v>
       </c>
       <c r="CI2" s="3">
-        <f t="array" ref="CI2:CI16">_xll.PIAdvCalcDat(Planilha2!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CI2:CI25">_xll.PIAdvCalcDat(Planilha2!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.994381348032064</v>
       </c>
       <c r="CJ2" s="3">
-        <f t="array" ref="CJ2:CJ16">_xll.PIAdvCalcDat(Planilha2!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CJ2:CJ25">_xll.PIAdvCalcDat(Planilha2!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.687269645813451</v>
       </c>
       <c r="CK2" s="3">
-        <f t="array" ref="CK2:CK16">_xll.PIAdvCalcDat(Planilha2!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CK2:CK25">_xll.PIAdvCalcDat(Planilha2!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.180092399692185</v>
       </c>
       <c r="CL2" s="3">
-        <f t="array" ref="CL2:CL16">_xll.PIAdvCalcDat(Planilha2!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CL2:CL25">_xll.PIAdvCalcDat(Planilha2!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.859863709518741</v>
       </c>
       <c r="CM2" s="3">
-        <f t="array" ref="CM2:CM16">_xll.PIAdvCalcDat(Planilha2!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CM2:CM25">_xll.PIAdvCalcDat(Planilha2!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.49781750523767</v>
       </c>
       <c r="CN2" s="3">
-        <f t="array" ref="CN2:CN16">_xll.PIAdvCalcDat(Planilha2!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CN2:CN25">_xll.PIAdvCalcDat(Planilha2!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.969577077071214</v>
       </c>
       <c r="CO2" s="3">
-        <f t="array" ref="CO2:CO16">_xll.PIAdvCalcDat(Planilha2!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CO2:CO25">_xll.PIAdvCalcDat(Planilha2!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>68.427594884834633</v>
       </c>
       <c r="CP2" s="3">
-        <f t="array" ref="CP2:CP16">_xll.PIAdvCalcDat(Planilha2!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CP2:CP25">_xll.PIAdvCalcDat(Planilha2!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.447023250843372</v>
       </c>
       <c r="CQ2" s="3">
-        <f t="array" ref="CQ2:CQ16">_xll.PIAdvCalcDat(Planilha2!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CQ2:CQ25">_xll.PIAdvCalcDat(Planilha2!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.006373093929298</v>
       </c>
       <c r="CR2" s="3">
-        <f t="array" ref="CR2:CR16">_xll.PIAdvCalcDat(Planilha2!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CR2:CR25">_xll.PIAdvCalcDat(Planilha2!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.090263343567827</v>
       </c>
       <c r="CS2" s="3">
-        <f t="array" ref="CS2:CS16">_xll.PIAdvCalcDat(Planilha2!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CS2:CS25">_xll.PIAdvCalcDat(Planilha2!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.350341923468939</v>
       </c>
       <c r="CT2" s="3">
-        <f t="array" ref="CT2:CT16">_xll.PIAdvCalcDat(Planilha2!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CT2:CT25">_xll.PIAdvCalcDat(Planilha2!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.306905208473481</v>
       </c>
       <c r="CU2" s="3">
-        <f t="array" ref="CU2:CU16">_xll.PIAdvCalcDat(Planilha2!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CU2:CU25">_xll.PIAdvCalcDat(Planilha2!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.212585054062437</v>
       </c>
       <c r="CV2" s="3">
-        <f t="array" ref="CV2:CV16">_xll.PIAdvCalcDat(Planilha2!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CV2:CV25">_xll.PIAdvCalcDat(Planilha2!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.559981381715232</v>
       </c>
       <c r="CW2" s="3">
-        <f t="array" ref="CW2:CW16">_xll.PIAdvCalcDat(Planilha2!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CW2:CW25">_xll.PIAdvCalcDat(Planilha2!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.372578254112831</v>
       </c>
       <c r="CX2" s="3">
-        <f t="array" ref="CX2:CX16">_xll.PIAdvCalcDat(Planilha2!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CX2:CX25">_xll.PIAdvCalcDat(Planilha2!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.893767221685408</v>
       </c>
       <c r="CY2" s="3">
-        <f t="array" ref="CY2:CY16">_xll.PIAdvCalcDat(Planilha2!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CY2:CY25">_xll.PIAdvCalcDat(Planilha2!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.609749483465002</v>
       </c>
       <c r="CZ2" s="3">
-        <f t="array" ref="CZ2:CZ16">_xll.PIAdvCalcDat(Planilha2!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CZ2:CZ25">_xll.PIAdvCalcDat(Planilha2!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.277221774367739</v>
       </c>
       <c r="DA2" s="3">
-        <f t="array" ref="DA2:DA16">_xll.PIAdvCalcDat(Planilha2!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DA2:DA25">_xll.PIAdvCalcDat(Planilha2!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.200066854164355</v>
       </c>
       <c r="DB2" s="3">
-        <f t="array" ref="DB2:DB16">_xll.PIAdvCalcDat(Planilha2!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DB2:DB25">_xll.PIAdvCalcDat(Planilha2!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.036537466123121</v>
       </c>
       <c r="DC2" s="3">
-        <f t="array" ref="DC2:DC16">_xll.PIAdvCalcDat(Planilha2!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DC2:DC25">_xll.PIAdvCalcDat(Planilha2!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.184861604894429</v>
       </c>
       <c r="DD2" s="3">
-        <f t="array" ref="DD2:DD16">_xll.PIAdvCalcDat(Planilha2!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DD2:DD25">_xll.PIAdvCalcDat(Planilha2!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.529160873434073</v>
       </c>
       <c r="DE2" s="3">
-        <f t="array" ref="DE2:DE16">_xll.PIAdvCalcDat(Planilha2!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DE2:DE25">_xll.PIAdvCalcDat(Planilha2!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.258967116525845</v>
       </c>
       <c r="DF2" s="3">
-        <f t="array" ref="DF2:DF16">_xll.PIAdvCalcDat(Planilha2!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DF2:DF25">_xll.PIAdvCalcDat(Planilha2!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.339209131765159</v>
       </c>
       <c r="DG2" s="3">
-        <f t="array" ref="DG2:DG16">_xll.PIAdvCalcDat(Planilha2!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DG2:DG25">_xll.PIAdvCalcDat(Planilha2!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.293632028687675</v>
       </c>
       <c r="DH2" s="3">
-        <f t="array" ref="DH2:DH16">_xll.PIAdvCalcDat(Planilha2!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DH2:DH25">_xll.PIAdvCalcDat(Planilha2!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>57.88067158004673</v>
       </c>
       <c r="DI2" s="3">
-        <f t="array" ref="DI2:DI16">_xll.PIAdvCalcDat(Planilha2!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DI2:DI25">_xll.PIAdvCalcDat(Planilha2!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.227049117097003</v>
       </c>
       <c r="DJ2" s="3">
-        <f t="array" ref="DJ2:DJ16">_xll.PIAdvCalcDat(Planilha2!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DJ2:DJ25">_xll.PIAdvCalcDat(Planilha2!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.130745928818129</v>
       </c>
       <c r="DK2" s="3">
-        <f t="array" ref="DK2:DK16">_xll.PIAdvCalcDat(Planilha2!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DK2:DK25">_xll.PIAdvCalcDat(Planilha2!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.490414680841141</v>
       </c>
       <c r="DL2" s="3">
-        <f t="array" ref="DL2:DL16">_xll.PIAdvCalcDat(Planilha2!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DL2:DL25">_xll.PIAdvCalcDat(Planilha2!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.819504128821286</v>
       </c>
       <c r="DM2" s="3">
-        <f t="array" ref="DM2:DM16">_xll.PIAdvCalcDat(Planilha2!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DM2:DM25">_xll.PIAdvCalcDat(Planilha2!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.266936132820433</v>
       </c>
       <c r="DN2" s="3">
-        <f t="array" ref="DN2:DN16">_xll.PIAdvCalcDat(Planilha2!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DN2:DN25">_xll.PIAdvCalcDat(Planilha2!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.417407433745311</v>
       </c>
       <c r="DO2" s="3">
-        <f t="array" ref="DO2:DO16">_xll.PIAdvCalcDat(Planilha2!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DO2:DO25">_xll.PIAdvCalcDat(Planilha2!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.752063652254499</v>
       </c>
       <c r="DP2" s="3">
-        <f t="array" ref="DP2:DP16">_xll.PIAdvCalcDat(Planilha2!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DP2:DP25">_xll.PIAdvCalcDat(Planilha2!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.745807784222876</v>
       </c>
       <c r="DQ2" s="3">
-        <f t="array" ref="DQ2:DQ16">_xll.PIAdvCalcDat(Planilha2!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DQ2:DQ25">_xll.PIAdvCalcDat(Planilha2!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.242984060284087</v>
       </c>
       <c r="DR2" s="3">
-        <f t="array" ref="DR2:DR16">_xll.PIAdvCalcDat(Planilha2!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DR2:DR25">_xll.PIAdvCalcDat(Planilha2!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.246290319058183</v>
       </c>
       <c r="DS2" s="3">
-        <f t="array" ref="DS2:DS16">_xll.PIAdvCalcDat(Planilha2!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DS2:DS25">_xll.PIAdvCalcDat(Planilha2!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.646415916649069</v>
       </c>
       <c r="DT2" s="3">
-        <f t="array" ref="DT2:DT16">_xll.PIAdvCalcDat(Planilha2!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DT2:DT25">_xll.PIAdvCalcDat(Planilha2!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.655755815949554</v>
       </c>
       <c r="DU2" s="3">
-        <f t="array" ref="DU2:DU16">_xll.PIAdvCalcDat(Planilha2!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DU2:DU25">_xll.PIAdvCalcDat(Planilha2!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.64070251165343</v>
       </c>
       <c r="DV2" s="3">
-        <f t="array" ref="DV2:DV16">_xll.PIAdvCalcDat(Planilha2!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DV2:DV25">_xll.PIAdvCalcDat(Planilha2!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.300183738855758</v>
       </c>
       <c r="DW2" s="3">
-        <f t="array" ref="DW2:DW16">_xll.PIAdvCalcDat(Planilha2!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DW2:DW25">_xll.PIAdvCalcDat(Planilha2!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>54.136318763657584</v>
       </c>
       <c r="DX2" s="3">
-        <f t="array" ref="DX2:DX16">_xll.PIAdvCalcDat(Planilha2!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DX2:DX25">_xll.PIAdvCalcDat(Planilha2!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.039392756362815</v>
       </c>
       <c r="DY2" s="3">
-        <f t="array" ref="DY2:DY16">_xll.PIAdvCalcDat(Planilha2!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DY2:DY25">_xll.PIAdvCalcDat(Planilha2!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>40.592907882261798</v>
       </c>
       <c r="DZ2" s="3">
-        <f t="array" ref="DZ2:DZ16">_xll.PIAdvCalcDat(Planilha2!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DZ2:DZ25">_xll.PIAdvCalcDat(Planilha2!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.248666001994685</v>
       </c>
       <c r="EA2" s="3">
-        <f t="array" ref="EA2:EA16">_xll.PIAdvCalcDat(Planilha2!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EA2:EA25">_xll.PIAdvCalcDat(Planilha2!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.894452511372911</v>
       </c>
       <c r="EB2" s="3">
-        <f t="array" ref="EB2:EB16">_xll.PIAdvCalcDat(Planilha2!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EB2:EB25">_xll.PIAdvCalcDat(Planilha2!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.073090718655784</v>
       </c>
       <c r="EC2" s="3">
-        <f t="array" ref="EC2:EC16">_xll.PIAdvCalcDat(Planilha2!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EC2:EC25">_xll.PIAdvCalcDat(Planilha2!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.65680917167284</v>
       </c>
       <c r="ED2" s="3">
-        <f t="array" ref="ED2:ED16">_xll.PIAdvCalcDat(Planilha2!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="ED2:ED25">_xll.PIAdvCalcDat(Planilha2!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.299400116772297</v>
       </c>
       <c r="EE2" s="3">
-        <f t="array" ref="EE2:EE16">_xll.PIAdvCalcDat(Planilha2!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EE2:EE25">_xll.PIAdvCalcDat(Planilha2!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.593098770329895</v>
       </c>
       <c r="EF2" s="3">
-        <f t="array" ref="EF2:EF16">_xll.PIAdvCalcDat(Planilha2!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EF2:EF25">_xll.PIAdvCalcDat(Planilha2!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.115160004567294</v>
       </c>
       <c r="EG2" s="3">
-        <f t="array" ref="EG2:EG16">_xll.PIAdvCalcDat(Planilha2!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EG2:EG25">_xll.PIAdvCalcDat(Planilha2!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>42.501352820379836</v>
       </c>
       <c r="EH2" s="3">
-        <f t="array" ref="EH2:EH16">_xll.PIAdvCalcDat(Planilha2!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EH2:EH25">_xll.PIAdvCalcDat(Planilha2!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.830223522505946</v>
       </c>
       <c r="EI2" s="3">
-        <f t="array" ref="EI2:EI16">_xll.PIAdvCalcDat(Planilha2!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EI2:EI25">_xll.PIAdvCalcDat(Planilha2!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.90067363427886</v>
       </c>
       <c r="EJ2" s="3">
-        <f t="array" ref="EJ2:EJ16">_xll.PIAdvCalcDat(Planilha2!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EJ2:EJ25">_xll.PIAdvCalcDat(Planilha2!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.905811596490096</v>
       </c>
       <c r="EK2" s="3">
-        <f t="array" ref="EK2:EK16">_xll.PIAdvCalcDat(Planilha2!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EK2:EK25">_xll.PIAdvCalcDat(Planilha2!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.167333255949472</v>
       </c>
     </row>
@@ -7767,52 +7767,3850 @@
         <v>46.675344595682752</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B17" s="3">
+        <v>59.02322654450726</v>
+      </c>
+      <c r="C17" s="3">
+        <v>60.157368081058337</v>
+      </c>
+      <c r="D17" s="3">
+        <v>57.025631807300492</v>
+      </c>
+      <c r="E17" s="3">
+        <v>61.434414889543731</v>
+      </c>
+      <c r="F17" s="3">
+        <v>57.211154379118895</v>
+      </c>
+      <c r="G17" s="3">
+        <v>55.758356747380525</v>
+      </c>
+      <c r="H17" s="3">
+        <v>58.28663770872857</v>
+      </c>
+      <c r="I17" s="3">
+        <v>53.730294431376663</v>
+      </c>
+      <c r="J17" s="3">
+        <v>55.904140456399261</v>
+      </c>
+      <c r="K17" s="3">
+        <v>57.663061328466128</v>
+      </c>
+      <c r="L17" s="3">
+        <v>56.283704528770834</v>
+      </c>
+      <c r="M17" s="3">
+        <v>56.858642081404227</v>
+      </c>
+      <c r="N17" s="3">
+        <v>51.54632918567156</v>
+      </c>
+      <c r="O17" s="3">
+        <v>61.596090354333917</v>
+      </c>
+      <c r="P17" s="3">
+        <v>60.219440647354368</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>55.765912779490343</v>
+      </c>
+      <c r="R17" s="3">
+        <v>60.004660218136564</v>
+      </c>
+      <c r="S17" s="3">
+        <v>55.81604188980441</v>
+      </c>
+      <c r="T17" s="3">
+        <v>58.629737406744866</v>
+      </c>
+      <c r="U17" s="3">
+        <v>57.166957375307106</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W17" s="3">
+        <v>56.785311204585788</v>
+      </c>
+      <c r="X17" s="3">
+        <v>56.586114551046215</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>55.284405069471916</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>56.606568433341785</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>55.280688572676155</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>53.236466381900996</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>56.357681416948203</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>40.697381630740885</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>46.740051142729364</v>
+      </c>
+      <c r="AF17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>15.876293627746222</v>
+      </c>
+      <c r="AH17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>42.221736172168555</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>43.806827513121192</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>42.96846214542154</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>43.412386951998386</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>44.029155988929013</v>
+      </c>
+      <c r="AP17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>43.229432122749195</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>42.920670967597466</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>43.073954983922832</v>
+      </c>
+      <c r="AT17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>41.204251004134115</v>
+      </c>
+      <c r="AV17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>44.306042888708284</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>44.122731725628206</v>
+      </c>
+      <c r="AY17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>42.052704052470311</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>44.057525780274695</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>45.328246756549518</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>43.963269886217617</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>47.385339278589349</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>20.684522311661524</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>43.462828931055569</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>43.503145672627632</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>42.271164255899755</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>39.365207931790593</v>
+      </c>
+      <c r="BJ17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>42.775537695935981</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>47.627656877910297</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>49.040032651233624</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>56.992863114568742</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>59.396801704919</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>49.357261648795053</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>57.947747750577939</v>
+      </c>
+      <c r="BS17" s="3">
+        <v>54.285305115311658</v>
+      </c>
+      <c r="BT17" s="3">
+        <v>42.630901704805602</v>
+      </c>
+      <c r="BU17" s="3">
+        <v>41.639290106923958</v>
+      </c>
+      <c r="BV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="3">
+        <v>42.02748470657442</v>
+      </c>
+      <c r="BX17" s="3">
+        <v>41.285427621791236</v>
+      </c>
+      <c r="BY17" s="3">
+        <v>38.419402983004233</v>
+      </c>
+      <c r="BZ17" s="3">
+        <v>42.439393934577403</v>
+      </c>
+      <c r="CA17" s="3">
+        <v>45.094551282051285</v>
+      </c>
+      <c r="CB17" s="3">
+        <v>41.667370183127268</v>
+      </c>
+      <c r="CC17" s="3">
+        <v>41.286495243496539</v>
+      </c>
+      <c r="CD17" s="3">
+        <v>43.341539838447062</v>
+      </c>
+      <c r="CE17" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF17" s="3">
+        <v>43.452972948228989</v>
+      </c>
+      <c r="CG17" s="3">
+        <v>40.976430831916055</v>
+      </c>
+      <c r="CH17" s="3">
+        <v>55.963983034683487</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>56.217514270773115</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>55.756561445178946</v>
+      </c>
+      <c r="CK17" s="3">
+        <v>57.899136130696093</v>
+      </c>
+      <c r="CL17" s="3">
+        <v>57.622811960244526</v>
+      </c>
+      <c r="CM17" s="3">
+        <v>56.573590360883898</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>55.95991289225254</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>58.723449555196645</v>
+      </c>
+      <c r="CP17" s="3">
+        <v>60.442283349193616</v>
+      </c>
+      <c r="CQ17" s="3">
+        <v>56.93768729834472</v>
+      </c>
+      <c r="CR17" s="3">
+        <v>56.195164351246916</v>
+      </c>
+      <c r="CS17" s="3">
+        <v>59.06563818312037</v>
+      </c>
+      <c r="CT17" s="3">
+        <v>57.153800726554735</v>
+      </c>
+      <c r="CU17" s="3">
+        <v>50.726935403363633</v>
+      </c>
+      <c r="CV17" s="3">
+        <v>46.650456486123332</v>
+      </c>
+      <c r="CW17" s="3">
+        <v>49.508361622109277</v>
+      </c>
+      <c r="CX17" s="3">
+        <v>46.907714064882228</v>
+      </c>
+      <c r="CY17" s="3">
+        <v>42.89802586770098</v>
+      </c>
+      <c r="CZ17" s="3">
+        <v>40.020230543372953</v>
+      </c>
+      <c r="DA17" s="3">
+        <v>46.941471406377687</v>
+      </c>
+      <c r="DB17" s="3">
+        <v>47.209831453632582</v>
+      </c>
+      <c r="DC17" s="3">
+        <v>45.787395416592034</v>
+      </c>
+      <c r="DD17" s="3">
+        <v>43.906877912469973</v>
+      </c>
+      <c r="DE17" s="3">
+        <v>41.247789094700643</v>
+      </c>
+      <c r="DF17" s="3">
+        <v>45.951660955894447</v>
+      </c>
+      <c r="DG17" s="3">
+        <v>47.333059416130673</v>
+      </c>
+      <c r="DH17" s="3">
+        <v>55.325555181203001</v>
+      </c>
+      <c r="DI17" s="3">
+        <v>46.880066334718101</v>
+      </c>
+      <c r="DJ17" s="3">
+        <v>47.415980929753779</v>
+      </c>
+      <c r="DK17" s="3">
+        <v>49.104680110147903</v>
+      </c>
+      <c r="DL17" s="3">
+        <v>47.333891199024151</v>
+      </c>
+      <c r="DM17" s="3">
+        <v>42.062752573168517</v>
+      </c>
+      <c r="DN17" s="3">
+        <v>49.467111348847901</v>
+      </c>
+      <c r="DO17" s="3">
+        <v>48.449786250340168</v>
+      </c>
+      <c r="DP17" s="3">
+        <v>44.732768851498442</v>
+      </c>
+      <c r="DQ17" s="3">
+        <v>45.444709523670618</v>
+      </c>
+      <c r="DR17" s="3">
+        <v>46.477725856582971</v>
+      </c>
+      <c r="DS17" s="3">
+        <v>50.361303200113014</v>
+      </c>
+      <c r="DT17" s="3">
+        <v>50.233866830703001</v>
+      </c>
+      <c r="DU17" s="3">
+        <v>49.408825335907324</v>
+      </c>
+      <c r="DV17" s="3">
+        <v>47.955625576977255</v>
+      </c>
+      <c r="DW17" s="3">
+        <v>51.548230414089439</v>
+      </c>
+      <c r="DX17" s="3">
+        <v>42.19965565207778</v>
+      </c>
+      <c r="DY17" s="3">
+        <v>38.611224567567376</v>
+      </c>
+      <c r="DZ17" s="3">
+        <v>47.229778953927948</v>
+      </c>
+      <c r="EA17" s="3">
+        <v>45.47104453454552</v>
+      </c>
+      <c r="EB17" s="3">
+        <v>48.997097393058638</v>
+      </c>
+      <c r="EC17" s="3">
+        <v>49.020531337782792</v>
+      </c>
+      <c r="ED17" s="3">
+        <v>45.641088001712696</v>
+      </c>
+      <c r="EE17" s="3">
+        <v>46.510087286736102</v>
+      </c>
+      <c r="EF17" s="3">
+        <v>49.782276990827818</v>
+      </c>
+      <c r="EG17" s="3">
+        <v>45.789225035669219</v>
+      </c>
+      <c r="EH17" s="3">
+        <v>53.437011986523416</v>
+      </c>
+      <c r="EI17" s="3">
+        <v>45.369704161325707</v>
+      </c>
+      <c r="EJ17" s="3">
+        <v>47.820008930675485</v>
+      </c>
+      <c r="EK17" s="3">
+        <v>46.606935258707949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B18" s="3">
+        <v>62.433179892057154</v>
+      </c>
+      <c r="C18" s="3">
+        <v>62.870399404780656</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60.172545278193446</v>
+      </c>
+      <c r="E18" s="3">
+        <v>64.509100456059613</v>
+      </c>
+      <c r="F18" s="3">
+        <v>61.113264526257659</v>
+      </c>
+      <c r="G18" s="3">
+        <v>58.232787112950874</v>
+      </c>
+      <c r="H18" s="3">
+        <v>61.515655205680837</v>
+      </c>
+      <c r="I18" s="3">
+        <v>55.570808232707257</v>
+      </c>
+      <c r="J18" s="3">
+        <v>58.294726807816282</v>
+      </c>
+      <c r="K18" s="3">
+        <v>59.950047450907093</v>
+      </c>
+      <c r="L18" s="3">
+        <v>57.926042162372511</v>
+      </c>
+      <c r="M18" s="3">
+        <v>59.389012945963721</v>
+      </c>
+      <c r="N18" s="3">
+        <v>52.753425783152942</v>
+      </c>
+      <c r="O18" s="3">
+        <v>62.666482930396505</v>
+      </c>
+      <c r="P18" s="3">
+        <v>61.52395121773332</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>56.663178878534033</v>
+      </c>
+      <c r="R18" s="3">
+        <v>61.838406567300218</v>
+      </c>
+      <c r="S18" s="3">
+        <v>56.617506556599842</v>
+      </c>
+      <c r="T18" s="3">
+        <v>59.222154577888155</v>
+      </c>
+      <c r="U18" s="3">
+        <v>57.544404643310905</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W18" s="3">
+        <v>58.446727042960333</v>
+      </c>
+      <c r="X18" s="3">
+        <v>57.655938928828441</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>56.603069659194837</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>58.201849381233934</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>57.090814934252045</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>54.468736805343745</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>57.895927010937363</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>40.996140880431575</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>49.510957438692131</v>
+      </c>
+      <c r="AF18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>13.333569230853668</v>
+      </c>
+      <c r="AH18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>42.529995414462405</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>44.670526500445419</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>43.071933246079986</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>43.545690786985304</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>44.203379870188897</v>
+      </c>
+      <c r="AP18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>43.632648523632781</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>42.37510819042916</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>42.43377050597811</v>
+      </c>
+      <c r="AT18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>41.284178052489544</v>
+      </c>
+      <c r="AV18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>43.992799182450796</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>44.265296876774009</v>
+      </c>
+      <c r="AY18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>41.73870969203211</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>43.618949794333822</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>45.211832503873019</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>44.235971244976675</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>47.952277096464307</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>25.142307705349392</v>
+      </c>
+      <c r="BF18" s="3">
+        <v>42.707804870605472</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>43.373107879442102</v>
+      </c>
+      <c r="BH18" s="3">
+        <v>41.906718921554585</v>
+      </c>
+      <c r="BI18" s="3">
+        <v>40.678851310273004</v>
+      </c>
+      <c r="BJ18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK18" s="3">
+        <v>43.711111048542001</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>50.762117430168139</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>51.853826551876729</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>60.391077191883348</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>61.419781186815399</v>
+      </c>
+      <c r="BQ18" s="3">
+        <v>52.156330392936859</v>
+      </c>
+      <c r="BR18" s="3">
+        <v>60.961225668005738</v>
+      </c>
+      <c r="BS18" s="3">
+        <v>58.403327124576634</v>
+      </c>
+      <c r="BT18" s="3">
+        <v>44.416161361571888</v>
+      </c>
+      <c r="BU18" s="3">
+        <v>43.603288641684529</v>
+      </c>
+      <c r="BV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="3">
+        <v>44.080529058547249</v>
+      </c>
+      <c r="BX18" s="3">
+        <v>43.63286224432882</v>
+      </c>
+      <c r="BY18" s="3">
+        <v>37.84386466689439</v>
+      </c>
+      <c r="BZ18" s="3">
+        <v>44.070862523325673</v>
+      </c>
+      <c r="CA18" s="3">
+        <v>46.081417360080508</v>
+      </c>
+      <c r="CB18" s="3">
+        <v>42.320065746181889</v>
+      </c>
+      <c r="CC18" s="3">
+        <v>41.716782236177032</v>
+      </c>
+      <c r="CD18" s="3">
+        <v>43.087871908464678</v>
+      </c>
+      <c r="CE18" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF18" s="3">
+        <v>42.940615082596167</v>
+      </c>
+      <c r="CG18" s="3">
+        <v>41.19803965716752</v>
+      </c>
+      <c r="CH18" s="3">
+        <v>55.394032607686121</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>56.371108968265965</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>56.40385762459826</v>
+      </c>
+      <c r="CK18" s="3">
+        <v>58.244955659929836</v>
+      </c>
+      <c r="CL18" s="3">
+        <v>57.870296844426093</v>
+      </c>
+      <c r="CM18" s="3">
+        <v>58.189526380157936</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>57.435896265814108</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>59.740451521230511</v>
+      </c>
+      <c r="CP18" s="3">
+        <v>61.285080862899243</v>
+      </c>
+      <c r="CQ18" s="3">
+        <v>58.612664566570565</v>
+      </c>
+      <c r="CR18" s="3">
+        <v>56.792009680380836</v>
+      </c>
+      <c r="CS18" s="3">
+        <v>59.75618194296603</v>
+      </c>
+      <c r="CT18" s="3">
+        <v>57.84632731484745</v>
+      </c>
+      <c r="CU18" s="3">
+        <v>51.13676907661489</v>
+      </c>
+      <c r="CV18" s="3">
+        <v>47.688411006221067</v>
+      </c>
+      <c r="CW18" s="3">
+        <v>47.894212819265</v>
+      </c>
+      <c r="CX18" s="3">
+        <v>45.965205106635487</v>
+      </c>
+      <c r="CY18" s="3">
+        <v>43.867971231583589</v>
+      </c>
+      <c r="CZ18" s="3">
+        <v>44.173333360243213</v>
+      </c>
+      <c r="DA18" s="3">
+        <v>48.408212751834952</v>
+      </c>
+      <c r="DB18" s="3">
+        <v>45.041780805965935</v>
+      </c>
+      <c r="DC18" s="3">
+        <v>46.37610577728789</v>
+      </c>
+      <c r="DD18" s="3">
+        <v>46.228023152693211</v>
+      </c>
+      <c r="DE18" s="3">
+        <v>41.981631612996388</v>
+      </c>
+      <c r="DF18" s="3">
+        <v>46.828191021595885</v>
+      </c>
+      <c r="DG18" s="3">
+        <v>47.765447124585521</v>
+      </c>
+      <c r="DH18" s="3">
+        <v>54.784980973059874</v>
+      </c>
+      <c r="DI18" s="3">
+        <v>46.939525887718119</v>
+      </c>
+      <c r="DJ18" s="3">
+        <v>48.212992533073383</v>
+      </c>
+      <c r="DK18" s="3">
+        <v>49.10342873396791</v>
+      </c>
+      <c r="DL18" s="3">
+        <v>47.189291348795251</v>
+      </c>
+      <c r="DM18" s="3">
+        <v>41.673087167244958</v>
+      </c>
+      <c r="DN18" s="3">
+        <v>49.515086186659431</v>
+      </c>
+      <c r="DO18" s="3">
+        <v>49.289884393614841</v>
+      </c>
+      <c r="DP18" s="3">
+        <v>46.908432604152956</v>
+      </c>
+      <c r="DQ18" s="3">
+        <v>48.292992587926854</v>
+      </c>
+      <c r="DR18" s="3">
+        <v>46.336316608539349</v>
+      </c>
+      <c r="DS18" s="3">
+        <v>50.867998736643649</v>
+      </c>
+      <c r="DT18" s="3">
+        <v>50.412214824432304</v>
+      </c>
+      <c r="DU18" s="3">
+        <v>49.950373110001252</v>
+      </c>
+      <c r="DV18" s="3">
+        <v>47.967044777062966</v>
+      </c>
+      <c r="DW18" s="3">
+        <v>51.958265378088136</v>
+      </c>
+      <c r="DX18" s="3">
+        <v>45.086731861440171</v>
+      </c>
+      <c r="DY18" s="3">
+        <v>39.983980488232163</v>
+      </c>
+      <c r="DZ18" s="3">
+        <v>44.652631630223354</v>
+      </c>
+      <c r="EA18" s="3">
+        <v>45.367045114108798</v>
+      </c>
+      <c r="EB18" s="3">
+        <v>47.101211044701721</v>
+      </c>
+      <c r="EC18" s="3">
+        <v>49.773999359457527</v>
+      </c>
+      <c r="ED18" s="3">
+        <v>47.306778029671037</v>
+      </c>
+      <c r="EE18" s="3">
+        <v>48.253266169957463</v>
+      </c>
+      <c r="EF18" s="3">
+        <v>50.69896214869042</v>
+      </c>
+      <c r="EG18" s="3">
+        <v>48.043053428271342</v>
+      </c>
+      <c r="EH18" s="3">
+        <v>53.232921178582615</v>
+      </c>
+      <c r="EI18" s="3">
+        <v>45.753931494411084</v>
+      </c>
+      <c r="EJ18" s="3">
+        <v>48.54708573343752</v>
+      </c>
+      <c r="EK18" s="3">
+        <v>46.820376201856845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B19" s="3">
+        <v>70.448961775196793</v>
+      </c>
+      <c r="C19" s="3">
+        <v>68.294736809904521</v>
+      </c>
+      <c r="D19" s="3">
+        <v>67.871379768722463</v>
+      </c>
+      <c r="E19" s="3">
+        <v>71.592271805444923</v>
+      </c>
+      <c r="F19" s="3">
+        <v>69.616367992553705</v>
+      </c>
+      <c r="G19" s="3">
+        <v>68.181137508816192</v>
+      </c>
+      <c r="H19" s="3">
+        <v>69.477432357123391</v>
+      </c>
+      <c r="I19" s="3">
+        <v>65.177993438372212</v>
+      </c>
+      <c r="J19" s="3">
+        <v>67.809171338513181</v>
+      </c>
+      <c r="K19" s="3">
+        <v>69.268680746977367</v>
+      </c>
+      <c r="L19" s="3">
+        <v>65.219971847631797</v>
+      </c>
+      <c r="M19" s="3">
+        <v>67.557019755881385</v>
+      </c>
+      <c r="N19" s="3">
+        <v>61.407904235805304</v>
+      </c>
+      <c r="O19" s="3">
+        <v>73.612423207222847</v>
+      </c>
+      <c r="P19" s="3">
+        <v>74.226999208289683</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>66.545307730117415</v>
+      </c>
+      <c r="R19" s="3">
+        <v>72.4395491325145</v>
+      </c>
+      <c r="S19" s="3">
+        <v>66.773544700791746</v>
+      </c>
+      <c r="T19" s="3">
+        <v>70.420048728951016</v>
+      </c>
+      <c r="U19" s="3">
+        <v>68.372784499532344</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W19" s="3">
+        <v>66.502056413963956</v>
+      </c>
+      <c r="X19" s="3">
+        <v>65.997186023584419</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>65.420238903687789</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>67.70329831884078</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>65.59487558613435</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>64.909689445761003</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>67.745712199361961</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>49.45800571633665</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>74.905927004429387</v>
+      </c>
+      <c r="AF19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>21.498459467598774</v>
+      </c>
+      <c r="AH19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>52.257879454296159</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>55.47138709591281</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>52.681176974906357</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>54.000895939638404</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>53.713903394887147</v>
+      </c>
+      <c r="AP19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>54.181752592394766</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>53.981525414676987</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>55.912908741200852</v>
+      </c>
+      <c r="AT19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>54.020809744796288</v>
+      </c>
+      <c r="AV19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>57.147274243918929</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>57.733701695394778</v>
+      </c>
+      <c r="AY19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>52.790425558137038</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>56.518197573656849</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>58.051993226883674</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>56.061231608196437</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>60.058937527104618</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>42.180244117776773</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>52.09671489199264</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>50.53654354165915</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>51.408473096478858</v>
+      </c>
+      <c r="BI19" s="3">
+        <v>49.504408627922281</v>
+      </c>
+      <c r="BJ19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK19" s="3">
+        <v>54.583983576028501</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>58.87425070387259</v>
+      </c>
+      <c r="BN19" s="3">
+        <v>60.662446215338818</v>
+      </c>
+      <c r="BO19" s="3">
+        <v>70.559878475559373</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>74.535417657820304</v>
+      </c>
+      <c r="BQ19" s="3">
+        <v>62.580968906950389</v>
+      </c>
+      <c r="BR19" s="3">
+        <v>69.282234781580158</v>
+      </c>
+      <c r="BS19" s="3">
+        <v>66.905458471584211</v>
+      </c>
+      <c r="BT19" s="3">
+        <v>54.928868561989432</v>
+      </c>
+      <c r="BU19" s="3">
+        <v>53.002933196882708</v>
+      </c>
+      <c r="BV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="3">
+        <v>52.918717070916415</v>
+      </c>
+      <c r="BX19" s="3">
+        <v>53.150273333486929</v>
+      </c>
+      <c r="BY19" s="3">
+        <v>36.948979481929491</v>
+      </c>
+      <c r="BZ19" s="3">
+        <v>54.042884654265187</v>
+      </c>
+      <c r="CA19" s="3">
+        <v>56.345838048710924</v>
+      </c>
+      <c r="CB19" s="3">
+        <v>50.340856054877491</v>
+      </c>
+      <c r="CC19" s="3">
+        <v>49.242809972951974</v>
+      </c>
+      <c r="CD19" s="3">
+        <v>52.832812195746683</v>
+      </c>
+      <c r="CE19" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF19" s="3">
+        <v>49.859846300167263</v>
+      </c>
+      <c r="CG19" s="3">
+        <v>48.178194660674237</v>
+      </c>
+      <c r="CH19" s="3">
+        <v>64.432810917263154</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>63.588745109750128</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>62.864011361269291</v>
+      </c>
+      <c r="CK19" s="3">
+        <v>69.937690445627013</v>
+      </c>
+      <c r="CL19" s="3">
+        <v>64.995153217470843</v>
+      </c>
+      <c r="CM19" s="3">
+        <v>64.186087118184318</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>62.444093368420461</v>
+      </c>
+      <c r="CO19" s="3">
+        <v>70.193646304506018</v>
+      </c>
+      <c r="CP19" s="3">
+        <v>68.929732931470411</v>
+      </c>
+      <c r="CQ19" s="3">
+        <v>64.783063394540804</v>
+      </c>
+      <c r="CR19" s="3">
+        <v>62.872990012361342</v>
+      </c>
+      <c r="CS19" s="3">
+        <v>66.447106670112348</v>
+      </c>
+      <c r="CT19" s="3">
+        <v>64.500015704546058</v>
+      </c>
+      <c r="CU19" s="3">
+        <v>58.459095945041561</v>
+      </c>
+      <c r="CV19" s="3">
+        <v>51.175756162508819</v>
+      </c>
+      <c r="CW19" s="3">
+        <v>51.721657945061729</v>
+      </c>
+      <c r="CX19" s="3">
+        <v>51.417965665969561</v>
+      </c>
+      <c r="CY19" s="3">
+        <v>46.961780932120583</v>
+      </c>
+      <c r="CZ19" s="3">
+        <v>47.823034348026397</v>
+      </c>
+      <c r="DA19" s="3">
+        <v>52.862431182212504</v>
+      </c>
+      <c r="DB19" s="3">
+        <v>53.037683670451756</v>
+      </c>
+      <c r="DC19" s="3">
+        <v>51.113927708821123</v>
+      </c>
+      <c r="DD19" s="3">
+        <v>51.706693172074885</v>
+      </c>
+      <c r="DE19" s="3">
+        <v>44.679141517446823</v>
+      </c>
+      <c r="DF19" s="3">
+        <v>50.613531729526542</v>
+      </c>
+      <c r="DG19" s="3">
+        <v>52.678145900201862</v>
+      </c>
+      <c r="DH19" s="3">
+        <v>61.295300445497865</v>
+      </c>
+      <c r="DI19" s="3">
+        <v>53.139036742919082</v>
+      </c>
+      <c r="DJ19" s="3">
+        <v>55.970771612168335</v>
+      </c>
+      <c r="DK19" s="3">
+        <v>54.522859600299455</v>
+      </c>
+      <c r="DL19" s="3">
+        <v>54.136919704960185</v>
+      </c>
+      <c r="DM19" s="3">
+        <v>49.021463219734123</v>
+      </c>
+      <c r="DN19" s="3">
+        <v>50.325747515909697</v>
+      </c>
+      <c r="DO19" s="3">
+        <v>59.213712005727324</v>
+      </c>
+      <c r="DP19" s="3">
+        <v>56.170794890332125</v>
+      </c>
+      <c r="DQ19" s="3">
+        <v>56.06588377714845</v>
+      </c>
+      <c r="DR19" s="3">
+        <v>49.973871858905653</v>
+      </c>
+      <c r="DS19" s="3">
+        <v>57.323646596041833</v>
+      </c>
+      <c r="DT19" s="3">
+        <v>55.395906184549744</v>
+      </c>
+      <c r="DU19" s="3">
+        <v>56.559366518671148</v>
+      </c>
+      <c r="DV19" s="3">
+        <v>52.932564618785761</v>
+      </c>
+      <c r="DW19" s="3">
+        <v>58.415236210983998</v>
+      </c>
+      <c r="DX19" s="3">
+        <v>46.325383277996529</v>
+      </c>
+      <c r="DY19" s="3">
+        <v>43.004153275168477</v>
+      </c>
+      <c r="DZ19" s="3">
+        <v>51.160451465625826</v>
+      </c>
+      <c r="EA19" s="3">
+        <v>51.958785775891222</v>
+      </c>
+      <c r="EB19" s="3">
+        <v>51.791336332260407</v>
+      </c>
+      <c r="EC19" s="3">
+        <v>55.905019063693807</v>
+      </c>
+      <c r="ED19" s="3">
+        <v>48.698567266792146</v>
+      </c>
+      <c r="EE19" s="3">
+        <v>51.479993499403427</v>
+      </c>
+      <c r="EF19" s="3">
+        <v>55.222176375398043</v>
+      </c>
+      <c r="EG19" s="3">
+        <v>51.101672245905952</v>
+      </c>
+      <c r="EH19" s="3">
+        <v>55.655395675220078</v>
+      </c>
+      <c r="EI19" s="3">
+        <v>49.459168410175451</v>
+      </c>
+      <c r="EJ19" s="3">
+        <v>51.777605775217033</v>
+      </c>
+      <c r="EK19" s="3">
+        <v>49.967728929877424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B20" s="3">
+        <v>73.83877095480284</v>
+      </c>
+      <c r="C20" s="3">
+        <v>72.506931044909678</v>
+      </c>
+      <c r="D20" s="3">
+        <v>70.09987522680737</v>
+      </c>
+      <c r="E20" s="3">
+        <v>75.294731168263525</v>
+      </c>
+      <c r="F20" s="3">
+        <v>70.264370732866681</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="H20" s="3">
+        <v>72.297996773656962</v>
+      </c>
+      <c r="I20" s="3">
+        <v>64.403141098630527</v>
+      </c>
+      <c r="J20" s="3">
+        <v>67.530164070279454</v>
+      </c>
+      <c r="K20" s="3">
+        <v>70.656876956606823</v>
+      </c>
+      <c r="L20" s="3">
+        <v>45.885420547913171</v>
+      </c>
+      <c r="M20" s="3">
+        <v>71.586608714115897</v>
+      </c>
+      <c r="N20" s="3">
+        <v>63.115343210354126</v>
+      </c>
+      <c r="O20" s="3">
+        <v>74.74404866185148</v>
+      </c>
+      <c r="P20" s="3">
+        <v>72.76592535229473</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>66.355869092801001</v>
+      </c>
+      <c r="R20" s="3">
+        <v>72.058017864583661</v>
+      </c>
+      <c r="S20" s="3">
+        <v>65.975508869558141</v>
+      </c>
+      <c r="T20" s="3">
+        <v>69.557687758835442</v>
+      </c>
+      <c r="U20" s="3">
+        <v>67.03250080087048</v>
+      </c>
+      <c r="V20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W20" s="3">
+        <v>67.108427157623083</v>
+      </c>
+      <c r="X20" s="3">
+        <v>67.052594749137725</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>66.167951128762951</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>67.315318830929741</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>65.348053196356872</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>64.686576497900774</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>68.637720056200322</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>52.792811903107697</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>73.102829031105557</v>
+      </c>
+      <c r="AF20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>22.825247508071044</v>
+      </c>
+      <c r="AH20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>53.267460017216337</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>55.689679558784526</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>54.982203137044785</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>55.010897524788042</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>54.461838657416187</v>
+      </c>
+      <c r="AP20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>54.74539474123403</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>53.884585782971683</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>53.485037839773931</v>
+      </c>
+      <c r="AT20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>52.505202628850498</v>
+      </c>
+      <c r="AV20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>53.28785858008419</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>55.643447170072733</v>
+      </c>
+      <c r="AY20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>52.4518423922162</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>54.396021727411913</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>55.943935000793985</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>54.705029606113776</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>58.965329016258629</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>18.127646871174083</v>
+      </c>
+      <c r="BF20" s="3">
+        <v>53.572331433885552</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>52.70317241274077</v>
+      </c>
+      <c r="BH20" s="3">
+        <v>52.964638775292457</v>
+      </c>
+      <c r="BI20" s="3">
+        <v>50.715320602186559</v>
+      </c>
+      <c r="BJ20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK20" s="3">
+        <v>54.037909789163557</v>
+      </c>
+      <c r="BL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="3">
+        <v>60.420240423669185</v>
+      </c>
+      <c r="BN20" s="3">
+        <v>61.605141945180527</v>
+      </c>
+      <c r="BO20" s="3">
+        <v>71.243377426997242</v>
+      </c>
+      <c r="BP20" s="3">
+        <v>75.715681521826397</v>
+      </c>
+      <c r="BQ20" s="3">
+        <v>64.078231311979749</v>
+      </c>
+      <c r="BR20" s="3">
+        <v>72.627734495551039</v>
+      </c>
+      <c r="BS20" s="3">
+        <v>70.035605465802249</v>
+      </c>
+      <c r="BT20" s="3">
+        <v>55.984595280187776</v>
+      </c>
+      <c r="BU20" s="3">
+        <v>55.137358751895022</v>
+      </c>
+      <c r="BV20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="3">
+        <v>53.908022974373161</v>
+      </c>
+      <c r="BX20" s="3">
+        <v>54.442780045020321</v>
+      </c>
+      <c r="BY20" s="3">
+        <v>41.547183068145607</v>
+      </c>
+      <c r="BZ20" s="3">
+        <v>54.603163236501267</v>
+      </c>
+      <c r="CA20" s="3">
+        <v>58.837402640999137</v>
+      </c>
+      <c r="CB20" s="3">
+        <v>52.110518943711718</v>
+      </c>
+      <c r="CC20" s="3">
+        <v>52.171661363528557</v>
+      </c>
+      <c r="CD20" s="3">
+        <v>55.396627822585955</v>
+      </c>
+      <c r="CE20" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF20" s="3">
+        <v>53.000198986755677</v>
+      </c>
+      <c r="CG20" s="3">
+        <v>52.260835424349068</v>
+      </c>
+      <c r="CH20" s="3">
+        <v>67.037522867255078</v>
+      </c>
+      <c r="CI20" s="3">
+        <v>66.919887532973334</v>
+      </c>
+      <c r="CJ20" s="3">
+        <v>66.445115865135307</v>
+      </c>
+      <c r="CK20" s="3">
+        <v>71.364295493072433</v>
+      </c>
+      <c r="CL20" s="3">
+        <v>69.826061453629634</v>
+      </c>
+      <c r="CM20" s="3">
+        <v>67.998899130586921</v>
+      </c>
+      <c r="CN20" s="3">
+        <v>67.111410161148129</v>
+      </c>
+      <c r="CO20" s="3">
+        <v>72.100199915012624</v>
+      </c>
+      <c r="CP20" s="3">
+        <v>72.439154584348174</v>
+      </c>
+      <c r="CQ20" s="3">
+        <v>68.109311283264205</v>
+      </c>
+      <c r="CR20" s="3">
+        <v>66.156133947476874</v>
+      </c>
+      <c r="CS20" s="3">
+        <v>70.032051729097603</v>
+      </c>
+      <c r="CT20" s="3">
+        <v>68.709862756937667</v>
+      </c>
+      <c r="CU20" s="3">
+        <v>60.899669807445278</v>
+      </c>
+      <c r="CV20" s="3">
+        <v>52.040880762502688</v>
+      </c>
+      <c r="CW20" s="3">
+        <v>55.17117063847936</v>
+      </c>
+      <c r="CX20" s="3">
+        <v>52.011724917710659</v>
+      </c>
+      <c r="CY20" s="3">
+        <v>49.426093026716458</v>
+      </c>
+      <c r="CZ20" s="3">
+        <v>50.957249635552273</v>
+      </c>
+      <c r="DA20" s="3">
+        <v>52.193343974640889</v>
+      </c>
+      <c r="DB20" s="3">
+        <v>55.059975871901692</v>
+      </c>
+      <c r="DC20" s="3">
+        <v>54.176555187985699</v>
+      </c>
+      <c r="DD20" s="3">
+        <v>51.746816076188217</v>
+      </c>
+      <c r="DE20" s="3">
+        <v>46.081296252405309</v>
+      </c>
+      <c r="DF20" s="3">
+        <v>52.201802849632415</v>
+      </c>
+      <c r="DG20" s="3">
+        <v>54.558937167528995</v>
+      </c>
+      <c r="DH20" s="3">
+        <v>60.707735254624311</v>
+      </c>
+      <c r="DI20" s="3">
+        <v>56.392601935189028</v>
+      </c>
+      <c r="DJ20" s="3">
+        <v>55.838717090516909</v>
+      </c>
+      <c r="DK20" s="3">
+        <v>57.171037469320737</v>
+      </c>
+      <c r="DL20" s="3">
+        <v>54.257058522177047</v>
+      </c>
+      <c r="DM20" s="3">
+        <v>49.516788627612385</v>
+      </c>
+      <c r="DN20" s="3">
+        <v>54.369471391213537</v>
+      </c>
+      <c r="DO20" s="3">
+        <v>59.716725063825031</v>
+      </c>
+      <c r="DP20" s="3">
+        <v>51.880115666255001</v>
+      </c>
+      <c r="DQ20" s="3">
+        <v>53.754065028589487</v>
+      </c>
+      <c r="DR20" s="3">
+        <v>51.007990166979539</v>
+      </c>
+      <c r="DS20" s="3">
+        <v>54.687788992819357</v>
+      </c>
+      <c r="DT20" s="3">
+        <v>55.309151188793443</v>
+      </c>
+      <c r="DU20" s="3">
+        <v>55.950699191900704</v>
+      </c>
+      <c r="DV20" s="3">
+        <v>56.970865370677068</v>
+      </c>
+      <c r="DW20" s="3">
+        <v>60.156073953064393</v>
+      </c>
+      <c r="DX20" s="3">
+        <v>47.694340189516012</v>
+      </c>
+      <c r="DY20" s="3">
+        <v>43.651361576937809</v>
+      </c>
+      <c r="DZ20" s="3">
+        <v>52.478603903491944</v>
+      </c>
+      <c r="EA20" s="3">
+        <v>49.532585985101036</v>
+      </c>
+      <c r="EB20" s="3">
+        <v>53.164254225675542</v>
+      </c>
+      <c r="EC20" s="3">
+        <v>54.015312650064871</v>
+      </c>
+      <c r="ED20" s="3">
+        <v>50.391914402254258</v>
+      </c>
+      <c r="EE20" s="3">
+        <v>53.026846191070405</v>
+      </c>
+      <c r="EF20" s="3">
+        <v>54.557773305506259</v>
+      </c>
+      <c r="EG20" s="3">
+        <v>51.347959153948558</v>
+      </c>
+      <c r="EH20" s="3">
+        <v>56.872905181446953</v>
+      </c>
+      <c r="EI20" s="3">
+        <v>51.931934662853557</v>
+      </c>
+      <c r="EJ20" s="3">
+        <v>53.304720841017847</v>
+      </c>
+      <c r="EK20" s="3">
+        <v>53.356140347990255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B21" s="3">
+        <v>71.950326773912437</v>
+      </c>
+      <c r="C21" s="3">
+        <v>71.571018346688376</v>
+      </c>
+      <c r="D21" s="3">
+        <v>68.4389681631408</v>
+      </c>
+      <c r="E21" s="3">
+        <v>73.45043140270414</v>
+      </c>
+      <c r="F21" s="3">
+        <v>70.724274814737385</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39.973004162949302</v>
+      </c>
+      <c r="H21" s="3">
+        <v>70.480110511288018</v>
+      </c>
+      <c r="I21" s="3">
+        <v>66.782652385152346</v>
+      </c>
+      <c r="J21" s="3">
+        <v>71.001548361333434</v>
+      </c>
+      <c r="K21" s="3">
+        <v>70.287218344110101</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M21" s="3">
+        <v>71.964393966817454</v>
+      </c>
+      <c r="N21" s="3">
+        <v>64.696002616398729</v>
+      </c>
+      <c r="O21" s="3">
+        <v>74.957443759304383</v>
+      </c>
+      <c r="P21" s="3">
+        <v>76.267420772517212</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>69.093125451646557</v>
+      </c>
+      <c r="R21" s="3">
+        <v>75.330566936608903</v>
+      </c>
+      <c r="S21" s="3">
+        <v>67.757689828210189</v>
+      </c>
+      <c r="T21" s="3">
+        <v>72.651689829566024</v>
+      </c>
+      <c r="U21" s="3">
+        <v>70.776416448290561</v>
+      </c>
+      <c r="V21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W21" s="3">
+        <v>70.428460756280856</v>
+      </c>
+      <c r="X21" s="3">
+        <v>69.514611032711301</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>69.564927473509812</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>70.714140285369794</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>69.11182528350102</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>68.652205197977608</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>71.039034182484158</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>55.074607154118176</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>74.626811053615214</v>
+      </c>
+      <c r="AF21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>35.069679002879582</v>
+      </c>
+      <c r="AH21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>56.249320159490871</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>57.994087474733149</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>57.131842187450239</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>57.526198019234897</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>57.146209394060669</v>
+      </c>
+      <c r="AP21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>56.540334990180433</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>56.014737786263716</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>56.944651169887806</v>
+      </c>
+      <c r="AT21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>55.516582452099954</v>
+      </c>
+      <c r="AV21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>56.781369115079087</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>57.551924805710279</v>
+      </c>
+      <c r="AY21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ21" s="3">
+        <v>54.964551583562809</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>56.905836314689822</v>
+      </c>
+      <c r="BB21" s="3">
+        <v>59.100996338802837</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>58.072795492175821</v>
+      </c>
+      <c r="BD21" s="3">
+        <v>61.475697491487566</v>
+      </c>
+      <c r="BE21" s="3">
+        <v>14.417646997115192</v>
+      </c>
+      <c r="BF21" s="3">
+        <v>56.546930947267185</v>
+      </c>
+      <c r="BG21" s="3">
+        <v>55.651354872180569</v>
+      </c>
+      <c r="BH21" s="3">
+        <v>55.710053859964091</v>
+      </c>
+      <c r="BI21" s="3">
+        <v>53.641077610542034</v>
+      </c>
+      <c r="BJ21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK21" s="3">
+        <v>56.312426098705046</v>
+      </c>
+      <c r="BL21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="3">
+        <v>62.758479640472139</v>
+      </c>
+      <c r="BN21" s="3">
+        <v>64.229883707080319</v>
+      </c>
+      <c r="BO21" s="3">
+        <v>72.196441141664863</v>
+      </c>
+      <c r="BP21" s="3">
+        <v>78.312343260208081</v>
+      </c>
+      <c r="BQ21" s="3">
+        <v>66.907072556805744</v>
+      </c>
+      <c r="BR21" s="3">
+        <v>74.597527285302078</v>
+      </c>
+      <c r="BS21" s="3">
+        <v>70.009754000365277</v>
+      </c>
+      <c r="BT21" s="3">
+        <v>58.993362389568276</v>
+      </c>
+      <c r="BU21" s="3">
+        <v>57.056026401877197</v>
+      </c>
+      <c r="BV21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="3">
+        <v>56.508571413804859</v>
+      </c>
+      <c r="BX21" s="3">
+        <v>56.327567976198431</v>
+      </c>
+      <c r="BY21" s="3">
+        <v>40.013519564154429</v>
+      </c>
+      <c r="BZ21" s="3">
+        <v>55.883042612741157</v>
+      </c>
+      <c r="CA21" s="3">
+        <v>60.72722886326801</v>
+      </c>
+      <c r="CB21" s="3">
+        <v>55.458762822691931</v>
+      </c>
+      <c r="CC21" s="3">
+        <v>54.745800530936052</v>
+      </c>
+      <c r="CD21" s="3">
+        <v>57.116075547364645</v>
+      </c>
+      <c r="CE21" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF21" s="3">
+        <v>55.820754680993424</v>
+      </c>
+      <c r="CG21" s="3">
+        <v>54.400253852348129</v>
+      </c>
+      <c r="CH21" s="3">
+        <v>69.038277864375985</v>
+      </c>
+      <c r="CI21" s="3">
+        <v>67.870831758454756</v>
+      </c>
+      <c r="CJ21" s="3">
+        <v>67.110888807104658</v>
+      </c>
+      <c r="CK21" s="3">
+        <v>72.981047550746368</v>
+      </c>
+      <c r="CL21" s="3">
+        <v>70.495848372696969</v>
+      </c>
+      <c r="CM21" s="3">
+        <v>69.555205594816542</v>
+      </c>
+      <c r="CN21" s="3">
+        <v>68.601186472313671</v>
+      </c>
+      <c r="CO21" s="3">
+        <v>73.151349177208331</v>
+      </c>
+      <c r="CP21" s="3">
+        <v>72.872147591776255</v>
+      </c>
+      <c r="CQ21" s="3">
+        <v>69.7988525829537</v>
+      </c>
+      <c r="CR21" s="3">
+        <v>67.723153920149002</v>
+      </c>
+      <c r="CS21" s="3">
+        <v>69.993314776950413</v>
+      </c>
+      <c r="CT21" s="3">
+        <v>69.35559957061048</v>
+      </c>
+      <c r="CU21" s="3">
+        <v>64.490300112087496</v>
+      </c>
+      <c r="CV21" s="3">
+        <v>54.327384316218335</v>
+      </c>
+      <c r="CW21" s="3">
+        <v>55.915447601584887</v>
+      </c>
+      <c r="CX21" s="3">
+        <v>53.823543526544327</v>
+      </c>
+      <c r="CY21" s="3">
+        <v>50.564402178947972</v>
+      </c>
+      <c r="CZ21" s="3">
+        <v>49.700036953150303</v>
+      </c>
+      <c r="DA21" s="3">
+        <v>56.545961055915001</v>
+      </c>
+      <c r="DB21" s="3">
+        <v>54.91861560031041</v>
+      </c>
+      <c r="DC21" s="3">
+        <v>55.693706718441724</v>
+      </c>
+      <c r="DD21" s="3">
+        <v>57.0001111705715</v>
+      </c>
+      <c r="DE21" s="3">
+        <v>47.989393141852055</v>
+      </c>
+      <c r="DF21" s="3">
+        <v>53.178246202195474</v>
+      </c>
+      <c r="DG21" s="3">
+        <v>54.674502218037226</v>
+      </c>
+      <c r="DH21" s="3">
+        <v>62.345350357935018</v>
+      </c>
+      <c r="DI21" s="3">
+        <v>61.874897477272789</v>
+      </c>
+      <c r="DJ21" s="3">
+        <v>53.578313782898306</v>
+      </c>
+      <c r="DK21" s="3">
+        <v>54.525273585912601</v>
+      </c>
+      <c r="DL21" s="3">
+        <v>57.980612813829325</v>
+      </c>
+      <c r="DM21" s="3">
+        <v>50.922522495654057</v>
+      </c>
+      <c r="DN21" s="3">
+        <v>53.388884248185612</v>
+      </c>
+      <c r="DO21" s="3">
+        <v>55.986412550273691</v>
+      </c>
+      <c r="DP21" s="3">
+        <v>52.592067488336362</v>
+      </c>
+      <c r="DQ21" s="3">
+        <v>56.775417393346444</v>
+      </c>
+      <c r="DR21" s="3">
+        <v>52.946435849722519</v>
+      </c>
+      <c r="DS21" s="3">
+        <v>57.917181483587107</v>
+      </c>
+      <c r="DT21" s="3">
+        <v>60.820190447852724</v>
+      </c>
+      <c r="DU21" s="3">
+        <v>60.129701690231364</v>
+      </c>
+      <c r="DV21" s="3">
+        <v>58.247761152276944</v>
+      </c>
+      <c r="DW21" s="3">
+        <v>61.364048916215879</v>
+      </c>
+      <c r="DX21" s="3">
+        <v>48.96684861910753</v>
+      </c>
+      <c r="DY21" s="3">
+        <v>48.975557588673325</v>
+      </c>
+      <c r="DZ21" s="3">
+        <v>56.004869550622026</v>
+      </c>
+      <c r="EA21" s="3">
+        <v>51.816254986258677</v>
+      </c>
+      <c r="EB21" s="3">
+        <v>54.948981275569899</v>
+      </c>
+      <c r="EC21" s="3">
+        <v>56.930179809200474</v>
+      </c>
+      <c r="ED21" s="3">
+        <v>53.170715090931402</v>
+      </c>
+      <c r="EE21" s="3">
+        <v>55.392315154564209</v>
+      </c>
+      <c r="EF21" s="3">
+        <v>55.655771893486694</v>
+      </c>
+      <c r="EG21" s="3">
+        <v>55.004747561148953</v>
+      </c>
+      <c r="EH21" s="3">
+        <v>59.434165217266326</v>
+      </c>
+      <c r="EI21" s="3">
+        <v>50.987638410141784</v>
+      </c>
+      <c r="EJ21" s="3">
+        <v>56.482120498054492</v>
+      </c>
+      <c r="EK21" s="3">
+        <v>55.896505013362138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B22" s="3">
+        <v>71.113050106763652</v>
+      </c>
+      <c r="C22" s="3">
+        <v>69.924270230914473</v>
+      </c>
+      <c r="D22" s="3">
+        <v>66.743796165353558</v>
+      </c>
+      <c r="E22" s="3">
+        <v>72.216201218072669</v>
+      </c>
+      <c r="F22" s="3">
+        <v>69.516514988342408</v>
+      </c>
+      <c r="G22" s="3">
+        <v>64.431741570764558</v>
+      </c>
+      <c r="H22" s="3">
+        <v>69.387360837658917</v>
+      </c>
+      <c r="I22" s="3">
+        <v>64.467756640916917</v>
+      </c>
+      <c r="J22" s="3">
+        <v>67.819574015837148</v>
+      </c>
+      <c r="K22" s="3">
+        <v>71.767967359231633</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M22" s="3">
+        <v>70.380651593299916</v>
+      </c>
+      <c r="N22" s="3">
+        <v>62.027879916065913</v>
+      </c>
+      <c r="O22" s="3">
+        <v>74.732238593122574</v>
+      </c>
+      <c r="P22" s="3">
+        <v>72.146345411821301</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>66.145173081977887</v>
+      </c>
+      <c r="R22" s="3">
+        <v>71.181967749412067</v>
+      </c>
+      <c r="S22" s="3">
+        <v>64.707730740398134</v>
+      </c>
+      <c r="T22" s="3">
+        <v>69.717066225523183</v>
+      </c>
+      <c r="U22" s="3">
+        <v>66.444375286824098</v>
+      </c>
+      <c r="V22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W22" s="3">
+        <v>66.712082394518532</v>
+      </c>
+      <c r="X22" s="3">
+        <v>66.184162216945381</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>65.178883975347972</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>66.768786120965984</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>66.532078000394122</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>65.57289893613077</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>70.096718770944463</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>53.142458886071573</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>68.336253828530999</v>
+      </c>
+      <c r="AF22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>25.184170361237754</v>
+      </c>
+      <c r="AH22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>53.918250794807648</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>56.759148387808182</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>56.776479745685762</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>56.549501142783441</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>56.161745332711988</v>
+      </c>
+      <c r="AP22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>56.705140834136088</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>53.911443643166983</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>54.315101007289066</v>
+      </c>
+      <c r="AT22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>52.630794225711355</v>
+      </c>
+      <c r="AV22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>54.173018661865889</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>55.924551809025907</v>
+      </c>
+      <c r="AY22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>51.580591811004986</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>52.95039718506721</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>53.875184449762436</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>52.863343079418733</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>56.99071547835522</v>
+      </c>
+      <c r="BE22" s="3">
+        <v>32.342131979372702</v>
+      </c>
+      <c r="BF22" s="3">
+        <v>53.366844911626316</v>
+      </c>
+      <c r="BG22" s="3">
+        <v>53.612958124170753</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>52.451036995009758</v>
+      </c>
+      <c r="BI22" s="3">
+        <v>50.784491394215799</v>
+      </c>
+      <c r="BJ22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK22" s="3">
+        <v>52.709163361811541</v>
+      </c>
+      <c r="BL22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM22" s="3">
+        <v>58.795114800017537</v>
+      </c>
+      <c r="BN22" s="3">
+        <v>60.895232946567546</v>
+      </c>
+      <c r="BO22" s="3">
+        <v>69.024863559259728</v>
+      </c>
+      <c r="BP22" s="3">
+        <v>74.202711064274411</v>
+      </c>
+      <c r="BQ22" s="3">
+        <v>61.079455180748091</v>
+      </c>
+      <c r="BR22" s="3">
+        <v>70.825796284395111</v>
+      </c>
+      <c r="BS22" s="3">
+        <v>67.857502235350537</v>
+      </c>
+      <c r="BT22" s="3">
+        <v>54.354160649900024</v>
+      </c>
+      <c r="BU22" s="3">
+        <v>53.243142429977127</v>
+      </c>
+      <c r="BV22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW22" s="3">
+        <v>52.852130571712934</v>
+      </c>
+      <c r="BX22" s="3">
+        <v>52.788418008137</v>
+      </c>
+      <c r="BY22" s="3">
+        <v>38.740000152587889</v>
+      </c>
+      <c r="BZ22" s="3">
+        <v>53.238246620045921</v>
+      </c>
+      <c r="CA22" s="3">
+        <v>58.486762931630928</v>
+      </c>
+      <c r="CB22" s="3">
+        <v>52.739008902291637</v>
+      </c>
+      <c r="CC22" s="3">
+        <v>52.349097414672961</v>
+      </c>
+      <c r="CD22" s="3">
+        <v>55.914912939826145</v>
+      </c>
+      <c r="CE22" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF22" s="3">
+        <v>52.205523258031803</v>
+      </c>
+      <c r="CG22" s="3">
+        <v>51.940076902569217</v>
+      </c>
+      <c r="CH22" s="3">
+        <v>68.033545583981791</v>
+      </c>
+      <c r="CI22" s="3">
+        <v>67.87716658275194</v>
+      </c>
+      <c r="CJ22" s="3">
+        <v>66.926133732901974</v>
+      </c>
+      <c r="CK22" s="3">
+        <v>71.770219691545336</v>
+      </c>
+      <c r="CL22" s="3">
+        <v>69.995434369961018</v>
+      </c>
+      <c r="CM22" s="3">
+        <v>68.169228328440809</v>
+      </c>
+      <c r="CN22" s="3">
+        <v>67.641944423843611</v>
+      </c>
+      <c r="CO22" s="3">
+        <v>71.803857024214821</v>
+      </c>
+      <c r="CP22" s="3">
+        <v>72.655473041117972</v>
+      </c>
+      <c r="CQ22" s="3">
+        <v>69.266185985585395</v>
+      </c>
+      <c r="CR22" s="3">
+        <v>67.380574751801618</v>
+      </c>
+      <c r="CS22" s="3">
+        <v>69.245658856977357</v>
+      </c>
+      <c r="CT22" s="3">
+        <v>69.815294429573626</v>
+      </c>
+      <c r="CU22" s="3">
+        <v>62.010076952614597</v>
+      </c>
+      <c r="CV22" s="3">
+        <v>54.81433047087296</v>
+      </c>
+      <c r="CW22" s="3">
+        <v>55.413939606114951</v>
+      </c>
+      <c r="CX22" s="3">
+        <v>54.572012240520579</v>
+      </c>
+      <c r="CY22" s="3">
+        <v>51.931862728891808</v>
+      </c>
+      <c r="CZ22" s="3">
+        <v>50.569799426760397</v>
+      </c>
+      <c r="DA22" s="3">
+        <v>56.515607528374659</v>
+      </c>
+      <c r="DB22" s="3">
+        <v>55.918876673304467</v>
+      </c>
+      <c r="DC22" s="3">
+        <v>54.063264567094777</v>
+      </c>
+      <c r="DD22" s="3">
+        <v>54.311979151020445</v>
+      </c>
+      <c r="DE22" s="3">
+        <v>48.201202986294163</v>
+      </c>
+      <c r="DF22" s="3">
+        <v>52.102612144741052</v>
+      </c>
+      <c r="DG22" s="3">
+        <v>54.206816667679938</v>
+      </c>
+      <c r="DH22" s="3">
+        <v>60.035239156231206</v>
+      </c>
+      <c r="DI22" s="3">
+        <v>57.36284854489336</v>
+      </c>
+      <c r="DJ22" s="3">
+        <v>53.653822080579452</v>
+      </c>
+      <c r="DK22" s="3">
+        <v>56.319506298964193</v>
+      </c>
+      <c r="DL22" s="3">
+        <v>56.132613788463317</v>
+      </c>
+      <c r="DM22" s="3">
+        <v>48.87049231723028</v>
+      </c>
+      <c r="DN22" s="3">
+        <v>52.497719290169954</v>
+      </c>
+      <c r="DO22" s="3">
+        <v>57.230706846536897</v>
+      </c>
+      <c r="DP22" s="3">
+        <v>51.626986902338437</v>
+      </c>
+      <c r="DQ22" s="3">
+        <v>55.215815476569944</v>
+      </c>
+      <c r="DR22" s="3">
+        <v>51.643391322193324</v>
+      </c>
+      <c r="DS22" s="3">
+        <v>53.410717860351397</v>
+      </c>
+      <c r="DT22" s="3">
+        <v>53.052217088417848</v>
+      </c>
+      <c r="DU22" s="3">
+        <v>54.629803033963611</v>
+      </c>
+      <c r="DV22" s="3">
+        <v>54.336503559051209</v>
+      </c>
+      <c r="DW22" s="3">
+        <v>58.485891577075506</v>
+      </c>
+      <c r="DX22" s="3">
+        <v>48.200156150790072</v>
+      </c>
+      <c r="DY22" s="3">
+        <v>45.580526656904283</v>
+      </c>
+      <c r="DZ22" s="3">
+        <v>54.869245496302078</v>
+      </c>
+      <c r="EA22" s="3">
+        <v>52.702783515117424</v>
+      </c>
+      <c r="EB22" s="3">
+        <v>56.472116136512966</v>
+      </c>
+      <c r="EC22" s="3">
+        <v>54.635445451534117</v>
+      </c>
+      <c r="ED22" s="3">
+        <v>55.416242423009393</v>
+      </c>
+      <c r="EE22" s="3">
+        <v>52.272511970771681</v>
+      </c>
+      <c r="EF22" s="3">
+        <v>55.428896974006676</v>
+      </c>
+      <c r="EG22" s="3">
+        <v>53.765293219041716</v>
+      </c>
+      <c r="EH22" s="3">
+        <v>57.010557152309026</v>
+      </c>
+      <c r="EI22" s="3">
+        <v>52.059993996164224</v>
+      </c>
+      <c r="EJ22" s="3">
+        <v>54.110364492598151</v>
+      </c>
+      <c r="EK22" s="3">
+        <v>53.529895640108407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B23" s="3">
+        <v>73.549014536128865</v>
+      </c>
+      <c r="C23" s="3">
+        <v>73.249345951880244</v>
+      </c>
+      <c r="D23" s="3">
+        <v>71.391686302449557</v>
+      </c>
+      <c r="E23" s="3">
+        <v>77.515264984039021</v>
+      </c>
+      <c r="F23" s="3">
+        <v>73.051927242218582</v>
+      </c>
+      <c r="G23" s="3">
+        <v>69.716905535402645</v>
+      </c>
+      <c r="H23" s="3">
+        <v>73.832561319250019</v>
+      </c>
+      <c r="I23" s="3">
+        <v>66.180784181946535</v>
+      </c>
+      <c r="J23" s="3">
+        <v>72.19668937726081</v>
+      </c>
+      <c r="K23" s="3">
+        <v>77.189319556616354</v>
+      </c>
+      <c r="L23" s="3">
+        <v>63.732307610144979</v>
+      </c>
+      <c r="M23" s="3">
+        <v>73.243785735781572</v>
+      </c>
+      <c r="N23" s="3">
+        <v>66.544518672044902</v>
+      </c>
+      <c r="O23" s="3">
+        <v>78.797538259730118</v>
+      </c>
+      <c r="P23" s="3">
+        <v>77.272276779723612</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>69.287977770110331</v>
+      </c>
+      <c r="R23" s="3">
+        <v>76.974511364825958</v>
+      </c>
+      <c r="S23" s="3">
+        <v>69.20077648607176</v>
+      </c>
+      <c r="T23" s="3">
+        <v>73.887223828499259</v>
+      </c>
+      <c r="U23" s="3">
+        <v>72.143047399522686</v>
+      </c>
+      <c r="V23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W23" s="3">
+        <v>70.416452648529472</v>
+      </c>
+      <c r="X23" s="3">
+        <v>70.287759712994585</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>69.527695616673569</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>70.337424707699967</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>69.582831381100945</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>69.413870490328833</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>72.821607166311395</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>56.156558473541708</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>71.935430842860811</v>
+      </c>
+      <c r="AF23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>5.218340024731086</v>
+      </c>
+      <c r="AH23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>57.668569091815272</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>59.081511420655403</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>58.804401067472824</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>59.358390504191505</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>58.931322672652371</v>
+      </c>
+      <c r="AP23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>59.680272134052423</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>57.956140293991353</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>58.119696982616624</v>
+      </c>
+      <c r="AT23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>57.073689958378374</v>
+      </c>
+      <c r="AV23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>58.810662073609343</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>61.24087809490451</v>
+      </c>
+      <c r="AY23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>56.240715488258374</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>57.838247692876237</v>
+      </c>
+      <c r="BB23" s="3">
+        <v>58.648677230512021</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>58.889913051439365</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>62.596832206032495</v>
+      </c>
+      <c r="BE23" s="3">
+        <v>41.828431194903807</v>
+      </c>
+      <c r="BF23" s="3">
+        <v>56.302967691729144</v>
+      </c>
+      <c r="BG23" s="3">
+        <v>56.104935054035927</v>
+      </c>
+      <c r="BH23" s="3">
+        <v>56.240474047178338</v>
+      </c>
+      <c r="BI23" s="3">
+        <v>54.062317282423592</v>
+      </c>
+      <c r="BJ23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK23" s="3">
+        <v>57.405210475883408</v>
+      </c>
+      <c r="BL23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM23" s="3">
+        <v>63.586989413259168</v>
+      </c>
+      <c r="BN23" s="3">
+        <v>64.744478736280996</v>
+      </c>
+      <c r="BO23" s="3">
+        <v>73.1374703254005</v>
+      </c>
+      <c r="BP23" s="3">
+        <v>82.439757276300838</v>
+      </c>
+      <c r="BQ23" s="3">
+        <v>68.356175544623625</v>
+      </c>
+      <c r="BR23" s="3">
+        <v>75.571173730331694</v>
+      </c>
+      <c r="BS23" s="3">
+        <v>71.440421570493243</v>
+      </c>
+      <c r="BT23" s="3">
+        <v>60.861648615668798</v>
+      </c>
+      <c r="BU23" s="3">
+        <v>58.246753032019861</v>
+      </c>
+      <c r="BV23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW23" s="3">
+        <v>57.497552689821909</v>
+      </c>
+      <c r="BX23" s="3">
+        <v>58.416491712966973</v>
+      </c>
+      <c r="BY23" s="3">
+        <v>62.913333384195965</v>
+      </c>
+      <c r="BZ23" s="3">
+        <v>58.884054001816757</v>
+      </c>
+      <c r="CA23" s="3">
+        <v>62.025203270640802</v>
+      </c>
+      <c r="CB23" s="3">
+        <v>56.27898011753215</v>
+      </c>
+      <c r="CC23" s="3">
+        <v>55.637783303806316</v>
+      </c>
+      <c r="CD23" s="3">
+        <v>59.056973990553125</v>
+      </c>
+      <c r="CE23" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF23" s="3">
+        <v>55.955226640586609</v>
+      </c>
+      <c r="CG23" s="3">
+        <v>54.601956400486351</v>
+      </c>
+      <c r="CH23" s="3">
+        <v>69.844891706887381</v>
+      </c>
+      <c r="CI23" s="3">
+        <v>69.74108194435685</v>
+      </c>
+      <c r="CJ23" s="3">
+        <v>68.455809240471822</v>
+      </c>
+      <c r="CK23" s="3">
+        <v>75.478542384332172</v>
+      </c>
+      <c r="CL23" s="3">
+        <v>71.146949260377667</v>
+      </c>
+      <c r="CM23" s="3">
+        <v>69.806829808736595</v>
+      </c>
+      <c r="CN23" s="3">
+        <v>69.67519282251196</v>
+      </c>
+      <c r="CO23" s="3">
+        <v>77.65901888588445</v>
+      </c>
+      <c r="CP23" s="3">
+        <v>75.473777028172265</v>
+      </c>
+      <c r="CQ23" s="3">
+        <v>70.758860245960051</v>
+      </c>
+      <c r="CR23" s="3">
+        <v>68.483385361653603</v>
+      </c>
+      <c r="CS23" s="3">
+        <v>71.273487198125025</v>
+      </c>
+      <c r="CT23" s="3">
+        <v>71.267550731376645</v>
+      </c>
+      <c r="CU23" s="3">
+        <v>65.123897706558253</v>
+      </c>
+      <c r="CV23" s="3">
+        <v>56.402542435635596</v>
+      </c>
+      <c r="CW23" s="3">
+        <v>56.576700348584936</v>
+      </c>
+      <c r="CX23" s="3">
+        <v>59.494758948360584</v>
+      </c>
+      <c r="CY23" s="3">
+        <v>51.258661191990605</v>
+      </c>
+      <c r="CZ23" s="3">
+        <v>54.295030654896841</v>
+      </c>
+      <c r="DA23" s="3">
+        <v>61.502419356889625</v>
+      </c>
+      <c r="DB23" s="3">
+        <v>60.106839079144358</v>
+      </c>
+      <c r="DC23" s="3">
+        <v>60.451773019885337</v>
+      </c>
+      <c r="DD23" s="3">
+        <v>58.811907209809291</v>
+      </c>
+      <c r="DE23" s="3">
+        <v>47.195630842694413</v>
+      </c>
+      <c r="DF23" s="3">
+        <v>57.93773470571719</v>
+      </c>
+      <c r="DG23" s="3">
+        <v>56.468073875105162</v>
+      </c>
+      <c r="DH23" s="3">
+        <v>62.995275565461462</v>
+      </c>
+      <c r="DI23" s="3">
+        <v>57.492534596111888</v>
+      </c>
+      <c r="DJ23" s="3">
+        <v>57.193589906067594</v>
+      </c>
+      <c r="DK23" s="3">
+        <v>59.005720308271506</v>
+      </c>
+      <c r="DL23" s="3">
+        <v>62.537280979108772</v>
+      </c>
+      <c r="DM23" s="3">
+        <v>50.853663651696564</v>
+      </c>
+      <c r="DN23" s="3">
+        <v>56.796324794264983</v>
+      </c>
+      <c r="DO23" s="3">
+        <v>61.295492136415731</v>
+      </c>
+      <c r="DP23" s="3">
+        <v>58.139007539605373</v>
+      </c>
+      <c r="DQ23" s="3">
+        <v>56.612940373478992</v>
+      </c>
+      <c r="DR23" s="3">
+        <v>51.066166823821227</v>
+      </c>
+      <c r="DS23" s="3">
+        <v>60.824258110292497</v>
+      </c>
+      <c r="DT23" s="3">
+        <v>58.507465252169858</v>
+      </c>
+      <c r="DU23" s="3">
+        <v>61.439897105193658</v>
+      </c>
+      <c r="DV23" s="3">
+        <v>57.825565896878707</v>
+      </c>
+      <c r="DW23" s="3">
+        <v>60.655904761794872</v>
+      </c>
+      <c r="DX23" s="3">
+        <v>48.03111438876261</v>
+      </c>
+      <c r="DY23" s="3">
+        <v>49.832575311481492</v>
+      </c>
+      <c r="DZ23" s="3">
+        <v>56.953116064903718</v>
+      </c>
+      <c r="EA23" s="3">
+        <v>50.074689334924393</v>
+      </c>
+      <c r="EB23" s="3">
+        <v>58.323673756748676</v>
+      </c>
+      <c r="EC23" s="3">
+        <v>57.527974129410723</v>
+      </c>
+      <c r="ED23" s="3">
+        <v>49.101851884650173</v>
+      </c>
+      <c r="EE23" s="3">
+        <v>55.308860079160397</v>
+      </c>
+      <c r="EF23" s="3">
+        <v>60.050429036357613</v>
+      </c>
+      <c r="EG23" s="3">
+        <v>56.943318920573972</v>
+      </c>
+      <c r="EH23" s="3">
+        <v>60.177917789084844</v>
+      </c>
+      <c r="EI23" s="3">
+        <v>52.02288583058737</v>
+      </c>
+      <c r="EJ23" s="3">
+        <v>53.091414755517313</v>
+      </c>
+      <c r="EK23" s="3">
+        <v>57.6627618130589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B24" s="3">
+        <v>77.207214610362527</v>
+      </c>
+      <c r="C24" s="3">
+        <v>74.594174739048498</v>
+      </c>
+      <c r="D24" s="3">
+        <v>71.64356537328608</v>
+      </c>
+      <c r="E24" s="3">
+        <v>77.680978342773628</v>
+      </c>
+      <c r="F24" s="3">
+        <v>73.515321100822902</v>
+      </c>
+      <c r="G24" s="3">
+        <v>70.546337323944243</v>
+      </c>
+      <c r="H24" s="3">
+        <v>74.548711777794026</v>
+      </c>
+      <c r="I24" s="3">
+        <v>67.623385178249137</v>
+      </c>
+      <c r="J24" s="3">
+        <v>72.319184565294222</v>
+      </c>
+      <c r="K24" s="3">
+        <v>77.145702048666678</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M24" s="3">
+        <v>73.339015487931732</v>
+      </c>
+      <c r="N24" s="3">
+        <v>65.829433611615812</v>
+      </c>
+      <c r="O24" s="3">
+        <v>76.893529158205581</v>
+      </c>
+      <c r="P24" s="3">
+        <v>77.271355023367207</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>69.686376952417149</v>
+      </c>
+      <c r="R24" s="3">
+        <v>77.022140960109994</v>
+      </c>
+      <c r="S24" s="3">
+        <v>69.676714087991741</v>
+      </c>
+      <c r="T24" s="3">
+        <v>75.253249870628565</v>
+      </c>
+      <c r="U24" s="3">
+        <v>73.240520237734017</v>
+      </c>
+      <c r="V24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W24" s="3">
+        <v>71.867738142896499</v>
+      </c>
+      <c r="X24" s="3">
+        <v>70.867739508828578</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>69.916213366139928</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>71.345646676989645</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>70.781672072720212</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>70.287870333648343</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>74.206702805599221</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>57.067225142607633</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>68.409939964315654</v>
+      </c>
+      <c r="AF24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>22.078095245361329</v>
+      </c>
+      <c r="AH24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>58.820711819794568</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>60.259772650330532</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>59.502349209255641</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>60.197299276465394</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>60.755975957691341</v>
+      </c>
+      <c r="AP24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>60.729738274044124</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>60.46258511186457</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>61.320525909501484</v>
+      </c>
+      <c r="AT24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>59.370163741269948</v>
+      </c>
+      <c r="AV24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>61.478713328730407</v>
+      </c>
+      <c r="AX24" s="3">
+        <v>62.906934181465076</v>
+      </c>
+      <c r="AY24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>58.95500405655342</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>61.288841201716735</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>61.094416277864461</v>
+      </c>
+      <c r="BC24" s="3">
+        <v>61.132114185806259</v>
+      </c>
+      <c r="BD24" s="3">
+        <v>64.911628775621111</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>59.348837172120767</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>58.683002519252575</v>
+      </c>
+      <c r="BG24" s="3">
+        <v>57.4986163541206</v>
+      </c>
+      <c r="BH24" s="3">
+        <v>57.727739161615787</v>
+      </c>
+      <c r="BI24" s="3">
+        <v>55.612940062054939</v>
+      </c>
+      <c r="BJ24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK24" s="3">
+        <v>58.728205235046751</v>
+      </c>
+      <c r="BL24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="3">
+        <v>65.489611174956735</v>
+      </c>
+      <c r="BN24" s="3">
+        <v>66.835600175067768</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>76.12742337480411</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>84.068332579943501</v>
+      </c>
+      <c r="BQ24" s="3">
+        <v>70.353493236437899</v>
+      </c>
+      <c r="BR24" s="3">
+        <v>78.48981394626702</v>
+      </c>
+      <c r="BS24" s="3">
+        <v>74.129657123560733</v>
+      </c>
+      <c r="BT24" s="3">
+        <v>60.801720838503471</v>
+      </c>
+      <c r="BU24" s="3">
+        <v>58.786007731237717</v>
+      </c>
+      <c r="BV24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW24" s="3">
+        <v>57.84025535745824</v>
+      </c>
+      <c r="BX24" s="3">
+        <v>58.5166628546718</v>
+      </c>
+      <c r="BY24" s="3">
+        <v>59.524998664855957</v>
+      </c>
+      <c r="BZ24" s="3">
+        <v>59.148884949356606</v>
+      </c>
+      <c r="CA24" s="3">
+        <v>63.616095891281894</v>
+      </c>
+      <c r="CB24" s="3">
+        <v>56.866161601712008</v>
+      </c>
+      <c r="CC24" s="3">
+        <v>56.005978589823442</v>
+      </c>
+      <c r="CD24" s="3">
+        <v>59.6078380105862</v>
+      </c>
+      <c r="CE24" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF24" s="3">
+        <v>56.663702319191934</v>
+      </c>
+      <c r="CG24" s="3">
+        <v>56.007646945086783</v>
+      </c>
+      <c r="CH24" s="3">
+        <v>72.730548917170154</v>
+      </c>
+      <c r="CI24" s="3">
+        <v>72.181470383760725</v>
+      </c>
+      <c r="CJ24" s="3">
+        <v>71.399145010856827</v>
+      </c>
+      <c r="CK24" s="3">
+        <v>80.243530685197626</v>
+      </c>
+      <c r="CL24" s="3">
+        <v>74.385967067512667</v>
+      </c>
+      <c r="CM24" s="3">
+        <v>74.210285213803459</v>
+      </c>
+      <c r="CN24" s="3">
+        <v>71.63278654594734</v>
+      </c>
+      <c r="CO24" s="3">
+        <v>80.124285083943334</v>
+      </c>
+      <c r="CP24" s="3">
+        <v>78.208433143041461</v>
+      </c>
+      <c r="CQ24" s="3">
+        <v>73.966255172289934</v>
+      </c>
+      <c r="CR24" s="3">
+        <v>71.447593839105068</v>
+      </c>
+      <c r="CS24" s="3">
+        <v>74.093462106554512</v>
+      </c>
+      <c r="CT24" s="3">
+        <v>73.037811099441768</v>
+      </c>
+      <c r="CU24" s="3">
+        <v>66.683809828076562</v>
+      </c>
+      <c r="CV24" s="3">
+        <v>57.819362274600046</v>
+      </c>
+      <c r="CW24" s="3">
+        <v>57.777400378695042</v>
+      </c>
+      <c r="CX24" s="3">
+        <v>55.573141948566445</v>
+      </c>
+      <c r="CY24" s="3">
+        <v>52.424512574646876</v>
+      </c>
+      <c r="CZ24" s="3">
+        <v>57.989261135403495</v>
+      </c>
+      <c r="DA24" s="3">
+        <v>59.14668320759688</v>
+      </c>
+      <c r="DB24" s="3">
+        <v>60.18750503253127</v>
+      </c>
+      <c r="DC24" s="3">
+        <v>55.596098994856831</v>
+      </c>
+      <c r="DD24" s="3">
+        <v>56.261226256453213</v>
+      </c>
+      <c r="DE24" s="3">
+        <v>45.184208641311194</v>
+      </c>
+      <c r="DF24" s="3">
+        <v>52.674376435035015</v>
+      </c>
+      <c r="DG24" s="3">
+        <v>54.869702118505451</v>
+      </c>
+      <c r="DH24" s="3">
+        <v>63.535521805804706</v>
+      </c>
+      <c r="DI24" s="3">
+        <v>56.290794303328163</v>
+      </c>
+      <c r="DJ24" s="3">
+        <v>56.521786350763627</v>
+      </c>
+      <c r="DK24" s="3">
+        <v>55.792422466518957</v>
+      </c>
+      <c r="DL24" s="3">
+        <v>60.22126475898154</v>
+      </c>
+      <c r="DM24" s="3">
+        <v>51.910064017565446</v>
+      </c>
+      <c r="DN24" s="3">
+        <v>49.758105344163774</v>
+      </c>
+      <c r="DO24" s="3">
+        <v>60.359785319578769</v>
+      </c>
+      <c r="DP24" s="3">
+        <v>57.978926749786496</v>
+      </c>
+      <c r="DQ24" s="3">
+        <v>56.224559694663569</v>
+      </c>
+      <c r="DR24" s="3">
+        <v>51.502558376086746</v>
+      </c>
+      <c r="DS24" s="3">
+        <v>54.567688391348796</v>
+      </c>
+      <c r="DT24" s="3">
+        <v>58.081754022067592</v>
+      </c>
+      <c r="DU24" s="3">
+        <v>57.774019249647516</v>
+      </c>
+      <c r="DV24" s="3">
+        <v>56.727791704532201</v>
+      </c>
+      <c r="DW24" s="3">
+        <v>59.685347653382664</v>
+      </c>
+      <c r="DX24" s="3">
+        <v>48.138159415590437</v>
+      </c>
+      <c r="DY24" s="3">
+        <v>47.09990253123317</v>
+      </c>
+      <c r="DZ24" s="3">
+        <v>51.625666602452597</v>
+      </c>
+      <c r="EA24" s="3">
+        <v>51.363672003654742</v>
+      </c>
+      <c r="EB24" s="3">
+        <v>54.470783561267069</v>
+      </c>
+      <c r="EC24" s="3">
+        <v>54.309373815267932</v>
+      </c>
+      <c r="ED24" s="3">
+        <v>49.09278449295013</v>
+      </c>
+      <c r="EE24" s="3">
+        <v>56.418577133902446</v>
+      </c>
+      <c r="EF24" s="3">
+        <v>56.951405225509156</v>
+      </c>
+      <c r="EG24" s="3">
+        <v>53.748221510839876</v>
+      </c>
+      <c r="EH24" s="3">
+        <v>56.279981322541126</v>
+      </c>
+      <c r="EI24" s="3">
+        <v>51.279901107806943</v>
+      </c>
+      <c r="EJ24" s="3">
+        <v>53.15455076292691</v>
+      </c>
+      <c r="EK24" s="3">
+        <v>52.80840375837586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B25" s="3">
+        <v>73.75485847490657</v>
+      </c>
+      <c r="C25" s="3">
+        <v>72.674317623275002</v>
+      </c>
+      <c r="D25" s="3">
+        <v>70.09747035512811</v>
+      </c>
+      <c r="E25" s="3">
+        <v>76.36099242183893</v>
+      </c>
+      <c r="F25" s="3">
+        <v>70.882817477120966</v>
+      </c>
+      <c r="G25" s="3">
+        <v>70.522289858682086</v>
+      </c>
+      <c r="H25" s="3">
+        <v>73.439822333199643</v>
+      </c>
+      <c r="I25" s="3">
+        <v>66.10944917863992</v>
+      </c>
+      <c r="J25" s="3">
+        <v>71.399521375172867</v>
+      </c>
+      <c r="K25" s="3">
+        <v>74.279103587158517</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M25" s="3">
+        <v>74.079580898714639</v>
+      </c>
+      <c r="N25" s="3">
+        <v>66.783211723954494</v>
+      </c>
+      <c r="O25" s="3">
+        <v>78.27601094378555</v>
+      </c>
+      <c r="P25" s="3">
+        <v>75.270975164093898</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>69.881466116464793</v>
+      </c>
+      <c r="R25" s="3">
+        <v>75.678699591365856</v>
+      </c>
+      <c r="S25" s="3">
+        <v>69.558225710080535</v>
+      </c>
+      <c r="T25" s="3">
+        <v>73.157811788429086</v>
+      </c>
+      <c r="U25" s="3">
+        <v>71.596725762666736</v>
+      </c>
+      <c r="V25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W25" s="3">
+        <v>70.472325644296376</v>
+      </c>
+      <c r="X25" s="3">
+        <v>69.58649696978874</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>69.201195256029877</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>70.645325879144934</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>69.835211961703408</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>69.708159551838307</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>73.298285163104367</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>54.885605632407717</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>67.083585788296432</v>
+      </c>
+      <c r="AF25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>22.865116260218066</v>
+      </c>
+      <c r="AH25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>57.006035915206738</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>58.223585115022644</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>58.851934888432083</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>58.786550324721318</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>57.887050596958979</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>58.004875559750403</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>57.215315335935301</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>58.136881000098704</v>
+      </c>
+      <c r="AT25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>56.111448529063715</v>
+      </c>
+      <c r="AV25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>57.211353711790395</v>
+      </c>
+      <c r="AX25" s="3">
+        <v>57.555527774717071</v>
+      </c>
+      <c r="AY25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>54.826202713746795</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>56.810329410080811</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>57.570413723266384</v>
+      </c>
+      <c r="BC25" s="3">
+        <v>57.29943979443177</v>
+      </c>
+      <c r="BD25" s="3">
+        <v>61.581281792499567</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>35.530910107089099</v>
+      </c>
+      <c r="BF25" s="3">
+        <v>54.804324361440301</v>
+      </c>
+      <c r="BG25" s="3">
+        <v>54.976837745486613</v>
+      </c>
+      <c r="BH25" s="3">
+        <v>53.636064030131827</v>
+      </c>
+      <c r="BI25" s="3">
+        <v>52.511436631282173</v>
+      </c>
+      <c r="BJ25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK25" s="3">
+        <v>54.72836134614063</v>
+      </c>
+      <c r="BL25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="3">
+        <v>60.985411340964731</v>
+      </c>
+      <c r="BN25" s="3">
+        <v>62.451778270048578</v>
+      </c>
+      <c r="BO25" s="3">
+        <v>69.817333315168113</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>74.665830671901517</v>
+      </c>
+      <c r="BQ25" s="3">
+        <v>65.975793703115869</v>
+      </c>
+      <c r="BR25" s="3">
+        <v>75.301965951476674</v>
+      </c>
+      <c r="BS25" s="3">
+        <v>70.846506252051881</v>
+      </c>
+      <c r="BT25" s="3">
+        <v>60.170166376011395</v>
+      </c>
+      <c r="BU25" s="3">
+        <v>59.060175126573661</v>
+      </c>
+      <c r="BV25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW25" s="3">
+        <v>58.210876956958998</v>
+      </c>
+      <c r="BX25" s="3">
+        <v>59.463525433728925</v>
+      </c>
+      <c r="BY25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ25" s="3">
+        <v>59.139407147089088</v>
+      </c>
+      <c r="CA25" s="3">
+        <v>63.417539529184765</v>
+      </c>
+      <c r="CB25" s="3">
+        <v>57.296300990240915</v>
+      </c>
+      <c r="CC25" s="3">
+        <v>56.245082450331907</v>
+      </c>
+      <c r="CD25" s="3">
+        <v>58.89262170432314</v>
+      </c>
+      <c r="CE25" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF25" s="3">
+        <v>57.753725857282845</v>
+      </c>
+      <c r="CG25" s="3">
+        <v>56.319457899791139</v>
+      </c>
+      <c r="CH25" s="3">
+        <v>69.360847813105863</v>
+      </c>
+      <c r="CI25" s="3">
+        <v>68.593927190490021</v>
+      </c>
+      <c r="CJ25" s="3">
+        <v>67.115257401792363</v>
+      </c>
+      <c r="CK25" s="3">
+        <v>73.065756028301465</v>
+      </c>
+      <c r="CL25" s="3">
+        <v>69.586594828890981</v>
+      </c>
+      <c r="CM25" s="3">
+        <v>70.004265887263486</v>
+      </c>
+      <c r="CN25" s="3">
+        <v>66.940281659737749</v>
+      </c>
+      <c r="CO25" s="3">
+        <v>73.139852683633904</v>
+      </c>
+      <c r="CP25" s="3">
+        <v>72.814274585860758</v>
+      </c>
+      <c r="CQ25" s="3">
+        <v>69.18603011843328</v>
+      </c>
+      <c r="CR25" s="3">
+        <v>67.656376196269548</v>
+      </c>
+      <c r="CS25" s="3">
+        <v>69.267044364922</v>
+      </c>
+      <c r="CT25" s="3">
+        <v>69.240490997766884</v>
+      </c>
+      <c r="CU25" s="3">
+        <v>63.479090722497531</v>
+      </c>
+      <c r="CV25" s="3">
+        <v>55.371483168447959</v>
+      </c>
+      <c r="CW25" s="3">
+        <v>57.602182138576907</v>
+      </c>
+      <c r="CX25" s="3">
+        <v>54.297337990787653</v>
+      </c>
+      <c r="CY25" s="3">
+        <v>52.496850516058331</v>
+      </c>
+      <c r="CZ25" s="3">
+        <v>52.73828774957709</v>
+      </c>
+      <c r="DA25" s="3">
+        <v>59.416728113165838</v>
+      </c>
+      <c r="DB25" s="3">
+        <v>56.422153323238227</v>
+      </c>
+      <c r="DC25" s="3">
+        <v>59.448835878308756</v>
+      </c>
+      <c r="DD25" s="3">
+        <v>56.409333842365363</v>
+      </c>
+      <c r="DE25" s="3">
+        <v>46.878634506811629</v>
+      </c>
+      <c r="DF25" s="3">
+        <v>52.960578519455417</v>
+      </c>
+      <c r="DG25" s="3">
+        <v>56.982282556031635</v>
+      </c>
+      <c r="DH25" s="3">
+        <v>63.24620839041652</v>
+      </c>
+      <c r="DI25" s="3">
+        <v>55.690220884332483</v>
+      </c>
+      <c r="DJ25" s="3">
+        <v>61.055585567846983</v>
+      </c>
+      <c r="DK25" s="3">
+        <v>57.14374989040649</v>
+      </c>
+      <c r="DL25" s="3">
+        <v>59.603367518072261</v>
+      </c>
+      <c r="DM25" s="3">
+        <v>53.440027128242896</v>
+      </c>
+      <c r="DN25" s="3">
+        <v>58.957142849876767</v>
+      </c>
+      <c r="DO25" s="3">
+        <v>58.808668499657678</v>
+      </c>
+      <c r="DP25" s="3">
+        <v>54.093208912237365</v>
+      </c>
+      <c r="DQ25" s="3">
+        <v>59.676409998171707</v>
+      </c>
+      <c r="DR25" s="3">
+        <v>58.61624144103974</v>
+      </c>
+      <c r="DS25" s="3">
+        <v>57.18689828957195</v>
+      </c>
+      <c r="DT25" s="3">
+        <v>58.929907411323754</v>
+      </c>
+      <c r="DU25" s="3">
+        <v>59.802417812772546</v>
+      </c>
+      <c r="DV25" s="3">
+        <v>60.679588457902334</v>
+      </c>
+      <c r="DW25" s="3">
+        <v>63.426499003367915</v>
+      </c>
+      <c r="DX25" s="3">
+        <v>49.96539582954474</v>
+      </c>
+      <c r="DY25" s="3">
+        <v>46.88865659654202</v>
+      </c>
+      <c r="DZ25" s="3">
+        <v>53.979043220888244</v>
+      </c>
+      <c r="EA25" s="3">
+        <v>53.835462892703092</v>
+      </c>
+      <c r="EB25" s="3">
+        <v>53.502462584490779</v>
+      </c>
+      <c r="EC25" s="3">
+        <v>57.845294565990052</v>
+      </c>
+      <c r="ED25" s="3">
+        <v>53.845025794731924</v>
+      </c>
+      <c r="EE25" s="3">
+        <v>56.467658062052109</v>
+      </c>
+      <c r="EF25" s="3">
+        <v>56.290071091220483</v>
+      </c>
+      <c r="EG25" s="3">
+        <v>52.135864624941263</v>
+      </c>
+      <c r="EH25" s="3">
+        <v>54.602863114387588</v>
+      </c>
+      <c r="EI25" s="3">
+        <v>54.952504474104614</v>
+      </c>
+      <c r="EJ25" s="3">
+        <v>53.629221725277148</v>
+      </c>
+      <c r="EK25" s="3">
+        <v>50.206082990171829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/Temp Enr.xlsx
+++ b/Temp Enr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lff\PycharmProjects\Juba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E2068-2613-4DF7-A008-4D8009172BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCEFCE-05D9-4BD9-86BB-F7134C21EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78527978-3531-4B96-8F8C-349D3226EA3D}"/>
+    <workbookView xWindow="10140" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{78527978-3531-4B96-8F8C-349D3226EA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:EK337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,566 +1254,566 @@
     </row>
     <row r="2" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f t="array" ref="A2:B25">_xll.PIAdvCalcDat(Planilha2!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"")</f>
+        <f t="array" ref="A2:B28">_xll.PIAdvCalcDat(Planilha2!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"")</f>
         <v>45139</v>
       </c>
       <c r="B2" s="3">
         <v>65.311986543032461</v>
       </c>
       <c r="C2" s="3">
-        <f t="array" ref="C2:C25">_xll.PIAdvCalcDat(Planilha2!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="C2:C28">_xll.PIAdvCalcDat(Planilha2!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>65.379337108622664</v>
       </c>
       <c r="D2" s="3">
-        <f t="array" ref="D2:D25">_xll.PIAdvCalcDat(Planilha2!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="D2:D28">_xll.PIAdvCalcDat(Planilha2!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.414674711699533</v>
       </c>
       <c r="E2" s="3">
-        <f t="array" ref="E2:E25">_xll.PIAdvCalcDat(Planilha2!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="E2:E28">_xll.PIAdvCalcDat(Planilha2!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.914892862042237</v>
       </c>
       <c r="F2" s="3">
-        <f t="array" ref="F2:F25">_xll.PIAdvCalcDat(Planilha2!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="F2:F28">_xll.PIAdvCalcDat(Planilha2!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.159260386635978</v>
       </c>
       <c r="G2" s="3">
-        <f t="array" ref="G2:G25">_xll.PIAdvCalcDat(Planilha2!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="G2:G28">_xll.PIAdvCalcDat(Planilha2!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.929815599496777</v>
       </c>
       <c r="H2" s="3">
-        <f t="array" ref="H2:H25">_xll.PIAdvCalcDat(Planilha2!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="H2:H28">_xll.PIAdvCalcDat(Planilha2!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.413917040148021</v>
       </c>
       <c r="I2" s="3">
-        <f t="array" ref="I2:I25">_xll.PIAdvCalcDat(Planilha2!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="I2:I28">_xll.PIAdvCalcDat(Planilha2!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.387335577380803</v>
       </c>
       <c r="J2" s="3">
-        <f t="array" ref="J2:J25">_xll.PIAdvCalcDat(Planilha2!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="J2:J28">_xll.PIAdvCalcDat(Planilha2!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.000410521082941</v>
       </c>
       <c r="K2" s="3">
-        <f t="array" ref="K2:K25">_xll.PIAdvCalcDat(Planilha2!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="K2:K28">_xll.PIAdvCalcDat(Planilha2!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.387992909993628</v>
       </c>
       <c r="L2" s="3">
-        <f t="array" ref="L2:L25">_xll.PIAdvCalcDat(Planilha2!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="L2:L28">_xll.PIAdvCalcDat(Planilha2!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.712279793627381</v>
       </c>
       <c r="M2" s="3">
-        <f t="array" ref="M2:M25">_xll.PIAdvCalcDat(Planilha2!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="M2:M28">_xll.PIAdvCalcDat(Planilha2!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.596509661930298</v>
       </c>
       <c r="N2" s="3">
-        <f t="array" ref="N2:N25">_xll.PIAdvCalcDat(Planilha2!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="N2:N28">_xll.PIAdvCalcDat(Planilha2!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.074864563700928</v>
       </c>
       <c r="O2" s="3">
-        <f t="array" ref="O2:O25">_xll.PIAdvCalcDat(Planilha2!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="O2:O28">_xll.PIAdvCalcDat(Planilha2!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>69.259284193420655</v>
       </c>
       <c r="P2" s="3">
-        <f t="array" ref="P2:P25">_xll.PIAdvCalcDat(Planilha2!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="P2:P28">_xll.PIAdvCalcDat(Planilha2!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.027774576460644</v>
       </c>
       <c r="Q2" s="3">
-        <f t="array" ref="Q2:Q25">_xll.PIAdvCalcDat(Planilha2!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Q2:Q28">_xll.PIAdvCalcDat(Planilha2!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.276356200299233</v>
       </c>
       <c r="R2" s="3">
-        <f t="array" ref="R2:R25">_xll.PIAdvCalcDat(Planilha2!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="R2:R28">_xll.PIAdvCalcDat(Planilha2!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.669674422862911</v>
       </c>
       <c r="S2" s="3">
-        <f t="array" ref="S2:S25">_xll.PIAdvCalcDat(Planilha2!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="S2:S28">_xll.PIAdvCalcDat(Planilha2!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.640992874254124</v>
       </c>
       <c r="T2" s="3">
-        <f t="array" ref="T2:T25">_xll.PIAdvCalcDat(Planilha2!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="T2:T28">_xll.PIAdvCalcDat(Planilha2!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.882867438709312</v>
       </c>
       <c r="U2" s="3">
-        <f t="array" ref="U2:U25">_xll.PIAdvCalcDat(Planilha2!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="U2:U28">_xll.PIAdvCalcDat(Planilha2!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.066155074678832</v>
       </c>
       <c r="V2" s="3">
-        <f t="array" ref="V2:V25">_xll.PIAdvCalcDat(Planilha2!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="V2:V28">_xll.PIAdvCalcDat(Planilha2!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.600731737503466</v>
       </c>
       <c r="W2" s="3">
-        <f t="array" ref="W2:W25">_xll.PIAdvCalcDat(Planilha2!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="W2:W28">_xll.PIAdvCalcDat(Planilha2!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.736650579657287</v>
       </c>
       <c r="X2" s="3">
-        <f t="array" ref="X2:X25">_xll.PIAdvCalcDat(Planilha2!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="X2:X28">_xll.PIAdvCalcDat(Planilha2!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.438986644829647</v>
       </c>
       <c r="Y2" s="3">
-        <f t="array" ref="Y2:Y25">_xll.PIAdvCalcDat(Planilha2!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Y2:Y28">_xll.PIAdvCalcDat(Planilha2!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.901621696554137</v>
       </c>
       <c r="Z2" s="3">
-        <f t="array" ref="Z2:Z25">_xll.PIAdvCalcDat(Planilha2!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="Z2:Z28">_xll.PIAdvCalcDat(Planilha2!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.402551300048827</v>
       </c>
       <c r="AA2" s="3">
-        <f t="array" ref="AA2:AA25">_xll.PIAdvCalcDat(Planilha2!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AA2:AA28">_xll.PIAdvCalcDat(Planilha2!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.780470219095811</v>
       </c>
       <c r="AB2" s="3">
-        <f t="array" ref="AB2:AB25">_xll.PIAdvCalcDat(Planilha2!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AB2:AB28">_xll.PIAdvCalcDat(Planilha2!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>57.35454767400568</v>
       </c>
       <c r="AC2" s="3">
-        <f t="array" ref="AC2:AC25">_xll.PIAdvCalcDat(Planilha2!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AC2:AC28">_xll.PIAdvCalcDat(Planilha2!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.869343523738998</v>
       </c>
       <c r="AD2" s="3">
-        <f t="array" ref="AD2:AD25">_xll.PIAdvCalcDat(Planilha2!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AD2:AD28">_xll.PIAdvCalcDat(Planilha2!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.967182018632009</v>
       </c>
       <c r="AE2" s="3">
-        <f t="array" ref="AE2:AE25">_xll.PIAdvCalcDat(Planilha2!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AE2:AE28">_xll.PIAdvCalcDat(Planilha2!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>64.204339706984172</v>
       </c>
       <c r="AF2" s="3" t="str">
-        <f t="array" ref="AF2:AF25">_xll.PIAdvCalcDat(Planilha2!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AF2:AF28">_xll.PIAdvCalcDat(Planilha2!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AG2" s="3">
-        <f t="array" ref="AG2:AG25">_xll.PIAdvCalcDat(Planilha2!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AG2:AG28">_xll.PIAdvCalcDat(Planilha2!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>21.343008220321178</v>
       </c>
       <c r="AH2" s="3" t="str">
-        <f t="array" ref="AH2:AH25">_xll.PIAdvCalcDat(Planilha2!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AH2:AH28">_xll.PIAdvCalcDat(Planilha2!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AI2" s="3" t="str">
-        <f t="array" ref="AI2:AI25">_xll.PIAdvCalcDat(Planilha2!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AI2:AI28">_xll.PIAdvCalcDat(Planilha2!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AJ2" s="3" t="str">
-        <f t="array" ref="AJ2:AJ25">_xll.PIAdvCalcDat(Planilha2!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AJ2:AJ28">_xll.PIAdvCalcDat(Planilha2!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AK2" s="3">
-        <f t="array" ref="AK2:AK25">_xll.PIAdvCalcDat(Planilha2!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AK2:AK28">_xll.PIAdvCalcDat(Planilha2!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.751907023355031</v>
       </c>
       <c r="AL2" s="3">
-        <f t="array" ref="AL2:AL25">_xll.PIAdvCalcDat(Planilha2!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AL2:AL28">_xll.PIAdvCalcDat(Planilha2!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.357195611244286</v>
       </c>
       <c r="AM2" s="3">
-        <f t="array" ref="AM2:AM25">_xll.PIAdvCalcDat(Planilha2!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AM2:AM28">_xll.PIAdvCalcDat(Planilha2!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.399842331462104</v>
       </c>
       <c r="AN2" s="3">
-        <f t="array" ref="AN2:AN25">_xll.PIAdvCalcDat(Planilha2!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AN2:AN28">_xll.PIAdvCalcDat(Planilha2!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.113630562881504</v>
       </c>
       <c r="AO2" s="3">
-        <f t="array" ref="AO2:AO25">_xll.PIAdvCalcDat(Planilha2!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AO2:AO28">_xll.PIAdvCalcDat(Planilha2!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.455276176345713</v>
       </c>
       <c r="AP2" s="3" t="str">
-        <f t="array" ref="AP2:AP25">_xll.PIAdvCalcDat(Planilha2!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AP2:AP28">_xll.PIAdvCalcDat(Planilha2!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AQ2" s="3">
-        <f t="array" ref="AQ2:AQ25">_xll.PIAdvCalcDat(Planilha2!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AQ2:AQ28">_xll.PIAdvCalcDat(Planilha2!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.592347891434379</v>
       </c>
       <c r="AR2" s="3">
-        <f t="array" ref="AR2:AR25">_xll.PIAdvCalcDat(Planilha2!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AR2:AR28">_xll.PIAdvCalcDat(Planilha2!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.156951143551879</v>
       </c>
       <c r="AS2" s="3">
-        <f t="array" ref="AS2:AS25">_xll.PIAdvCalcDat(Planilha2!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AS2:AS28">_xll.PIAdvCalcDat(Planilha2!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.649013827773473</v>
       </c>
       <c r="AT2" s="3" t="str">
-        <f t="array" ref="AT2:AT25">_xll.PIAdvCalcDat(Planilha2!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AT2:AT28">_xll.PIAdvCalcDat(Planilha2!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AU2" s="3">
-        <f t="array" ref="AU2:AU25">_xll.PIAdvCalcDat(Planilha2!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AU2:AU28">_xll.PIAdvCalcDat(Planilha2!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.56527810165678</v>
       </c>
       <c r="AV2" s="3" t="str">
-        <f t="array" ref="AV2:AV25">_xll.PIAdvCalcDat(Planilha2!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AV2:AV28">_xll.PIAdvCalcDat(Planilha2!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AW2" s="3">
-        <f t="array" ref="AW2:AW25">_xll.PIAdvCalcDat(Planilha2!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AW2:AW28">_xll.PIAdvCalcDat(Planilha2!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.758936797228564</v>
       </c>
       <c r="AX2" s="3">
-        <f t="array" ref="AX2:AX25">_xll.PIAdvCalcDat(Planilha2!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AX2:AX28">_xll.PIAdvCalcDat(Planilha2!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.488076393008946</v>
       </c>
       <c r="AY2" s="3" t="str">
-        <f t="array" ref="AY2:AY25">_xll.PIAdvCalcDat(Planilha2!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AY2:AY28">_xll.PIAdvCalcDat(Planilha2!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AZ2" s="3">
-        <f t="array" ref="AZ2:AZ25">_xll.PIAdvCalcDat(Planilha2!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="AZ2:AZ28">_xll.PIAdvCalcDat(Planilha2!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.012988286092877</v>
       </c>
       <c r="BA2" s="3">
-        <f t="array" ref="BA2:BA25">_xll.PIAdvCalcDat(Planilha2!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BA2:BA28">_xll.PIAdvCalcDat(Planilha2!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.843478264555266</v>
       </c>
       <c r="BB2" s="3">
-        <f t="array" ref="BB2:BB25">_xll.PIAdvCalcDat(Planilha2!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BB2:BB28">_xll.PIAdvCalcDat(Planilha2!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.858519242694847</v>
       </c>
       <c r="BC2" s="3">
-        <f t="array" ref="BC2:BC25">_xll.PIAdvCalcDat(Planilha2!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BC2:BC28">_xll.PIAdvCalcDat(Planilha2!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.247583998351537</v>
       </c>
       <c r="BD2" s="3">
-        <f t="array" ref="BD2:BD25">_xll.PIAdvCalcDat(Planilha2!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BD2:BD28">_xll.PIAdvCalcDat(Planilha2!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.608139773133644</v>
       </c>
       <c r="BE2" s="3">
-        <f t="array" ref="BE2:BE25">_xll.PIAdvCalcDat(Planilha2!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BE2:BE28">_xll.PIAdvCalcDat(Planilha2!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>18.911885345324141</v>
       </c>
       <c r="BF2" s="3">
-        <f t="array" ref="BF2:BF25">_xll.PIAdvCalcDat(Planilha2!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BF2:BF28">_xll.PIAdvCalcDat(Planilha2!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.298518495912909</v>
       </c>
       <c r="BG2" s="3">
-        <f t="array" ref="BG2:BG25">_xll.PIAdvCalcDat(Planilha2!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BG2:BG28">_xll.PIAdvCalcDat(Planilha2!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.279229632434031</v>
       </c>
       <c r="BH2" s="3">
-        <f t="array" ref="BH2:BH25">_xll.PIAdvCalcDat(Planilha2!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BH2:BH28">_xll.PIAdvCalcDat(Planilha2!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.965411315706248</v>
       </c>
       <c r="BI2" s="3">
-        <f t="array" ref="BI2:BI25">_xll.PIAdvCalcDat(Planilha2!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BI2:BI28">_xll.PIAdvCalcDat(Planilha2!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.918661236198794</v>
       </c>
       <c r="BJ2" s="3">
-        <f t="array" ref="BJ2:BJ25">_xll.PIAdvCalcDat(Planilha2!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BJ2:BJ28">_xll.PIAdvCalcDat(Planilha2!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.929798422525096</v>
       </c>
       <c r="BK2" s="3">
-        <f t="array" ref="BK2:BK25">_xll.PIAdvCalcDat(Planilha2!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BK2:BK28">_xll.PIAdvCalcDat(Planilha2!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.310389580664697</v>
       </c>
       <c r="BL2" s="3" t="str">
-        <f t="array" ref="BL2:BL25">_xll.PIAdvCalcDat(Planilha2!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BL2:BL28">_xll.PIAdvCalcDat(Planilha2!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BM2" s="3">
-        <f t="array" ref="BM2:BM25">_xll.PIAdvCalcDat(Planilha2!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BM2:BM28">_xll.PIAdvCalcDat(Planilha2!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>55.308965450036112</v>
       </c>
       <c r="BN2" s="3">
-        <f t="array" ref="BN2:BN25">_xll.PIAdvCalcDat(Planilha2!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BN2:BN28">_xll.PIAdvCalcDat(Planilha2!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.801954976097647</v>
       </c>
       <c r="BO2" s="3">
-        <f t="array" ref="BO2:BO25">_xll.PIAdvCalcDat(Planilha2!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BO2:BO28">_xll.PIAdvCalcDat(Planilha2!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.857851240529236</v>
       </c>
       <c r="BP2" s="3">
-        <f t="array" ref="BP2:BP25">_xll.PIAdvCalcDat(Planilha2!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BP2:BP28">_xll.PIAdvCalcDat(Planilha2!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>71.969277997333492</v>
       </c>
       <c r="BQ2" s="3">
-        <f t="array" ref="BQ2:BQ25">_xll.PIAdvCalcDat(Planilha2!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BQ2:BQ28">_xll.PIAdvCalcDat(Planilha2!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>58.668793848941199</v>
       </c>
       <c r="BR2" s="3">
-        <f t="array" ref="BR2:BR25">_xll.PIAdvCalcDat(Planilha2!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BR2:BR28">_xll.PIAdvCalcDat(Planilha2!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.617004074285063</v>
       </c>
       <c r="BS2" s="3">
-        <f t="array" ref="BS2:BS25">_xll.PIAdvCalcDat(Planilha2!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BS2:BS28">_xll.PIAdvCalcDat(Planilha2!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>62.920698509745314</v>
       </c>
       <c r="BT2" s="3">
-        <f t="array" ref="BT2:BT25">_xll.PIAdvCalcDat(Planilha2!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BT2:BT28">_xll.PIAdvCalcDat(Planilha2!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.058024483562619</v>
       </c>
       <c r="BU2" s="3">
-        <f t="array" ref="BU2:BU25">_xll.PIAdvCalcDat(Planilha2!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BU2:BU28">_xll.PIAdvCalcDat(Planilha2!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.127827599341543</v>
       </c>
       <c r="BV2" s="3" t="str">
-        <f t="array" ref="BV2:BV25">_xll.PIAdvCalcDat(Planilha2!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BV2:BV28">_xll.PIAdvCalcDat(Planilha2!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BW2" s="3">
-        <f t="array" ref="BW2:BW25">_xll.PIAdvCalcDat(Planilha2!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BW2:BW28">_xll.PIAdvCalcDat(Planilha2!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.997102826555199</v>
       </c>
       <c r="BX2" s="3">
-        <f t="array" ref="BX2:BX25">_xll.PIAdvCalcDat(Planilha2!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BX2:BX28">_xll.PIAdvCalcDat(Planilha2!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.642203285369199</v>
       </c>
       <c r="BY2" s="3">
-        <f t="array" ref="BY2:BY25">_xll.PIAdvCalcDat(Planilha2!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BY2:BY28">_xll.PIAdvCalcDat(Planilha2!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>39.219910892299524</v>
       </c>
       <c r="BZ2" s="3">
-        <f t="array" ref="BZ2:BZ25">_xll.PIAdvCalcDat(Planilha2!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="BZ2:BZ28">_xll.PIAdvCalcDat(Planilha2!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.506183315187627</v>
       </c>
       <c r="CA2" s="3">
-        <f t="array" ref="CA2:CA25">_xll.PIAdvCalcDat(Planilha2!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CA2:CA28">_xll.PIAdvCalcDat(Planilha2!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.340994537517588</v>
       </c>
       <c r="CB2" s="3">
-        <f t="array" ref="CB2:CB25">_xll.PIAdvCalcDat(Planilha2!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CB2:CB28">_xll.PIAdvCalcDat(Planilha2!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.275564958820233</v>
       </c>
       <c r="CC2" s="3">
-        <f t="array" ref="CC2:CC25">_xll.PIAdvCalcDat(Planilha2!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CC2:CC28">_xll.PIAdvCalcDat(Planilha2!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.522602378966923</v>
       </c>
       <c r="CD2" s="3">
-        <f t="array" ref="CD2:CD25">_xll.PIAdvCalcDat(Planilha2!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CD2:CD28">_xll.PIAdvCalcDat(Planilha2!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.58321085006861</v>
       </c>
       <c r="CE2" s="3" t="str">
-        <f t="array" ref="CE2:CE25">_xll.PIAdvCalcDat(Planilha2!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CE2:CE28">_xll.PIAdvCalcDat(Planilha2!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="CF2" s="3">
-        <f t="array" ref="CF2:CF25">_xll.PIAdvCalcDat(Planilha2!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CF2:CF28">_xll.PIAdvCalcDat(Planilha2!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.117640923358699</v>
       </c>
       <c r="CG2" s="3">
-        <f t="array" ref="CG2:CG25">_xll.PIAdvCalcDat(Planilha2!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CG2:CG28">_xll.PIAdvCalcDat(Planilha2!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.207933656471212</v>
       </c>
       <c r="CH2" s="3">
-        <f t="array" ref="CH2:CH25">_xll.PIAdvCalcDat(Planilha2!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CH2:CH28">_xll.PIAdvCalcDat(Planilha2!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.752396585121382</v>
       </c>
       <c r="CI2" s="3">
-        <f t="array" ref="CI2:CI25">_xll.PIAdvCalcDat(Planilha2!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CI2:CI28">_xll.PIAdvCalcDat(Planilha2!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>60.994381348032064</v>
       </c>
       <c r="CJ2" s="3">
-        <f t="array" ref="CJ2:CJ25">_xll.PIAdvCalcDat(Planilha2!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CJ2:CJ28">_xll.PIAdvCalcDat(Planilha2!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.687269645813451</v>
       </c>
       <c r="CK2" s="3">
-        <f t="array" ref="CK2:CK25">_xll.PIAdvCalcDat(Planilha2!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CK2:CK28">_xll.PIAdvCalcDat(Planilha2!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>66.180092399692185</v>
       </c>
       <c r="CL2" s="3">
-        <f t="array" ref="CL2:CL25">_xll.PIAdvCalcDat(Planilha2!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CL2:CL28">_xll.PIAdvCalcDat(Planilha2!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.859863709518741</v>
       </c>
       <c r="CM2" s="3">
-        <f t="array" ref="CM2:CM25">_xll.PIAdvCalcDat(Planilha2!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CM2:CM28">_xll.PIAdvCalcDat(Planilha2!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.49781750523767</v>
       </c>
       <c r="CN2" s="3">
-        <f t="array" ref="CN2:CN25">_xll.PIAdvCalcDat(Planilha2!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CN2:CN28">_xll.PIAdvCalcDat(Planilha2!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.969577077071214</v>
       </c>
       <c r="CO2" s="3">
-        <f t="array" ref="CO2:CO25">_xll.PIAdvCalcDat(Planilha2!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CO2:CO28">_xll.PIAdvCalcDat(Planilha2!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>68.427594884834633</v>
       </c>
       <c r="CP2" s="3">
-        <f t="array" ref="CP2:CP25">_xll.PIAdvCalcDat(Planilha2!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CP2:CP28">_xll.PIAdvCalcDat(Planilha2!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>67.447023250843372</v>
       </c>
       <c r="CQ2" s="3">
-        <f t="array" ref="CQ2:CQ25">_xll.PIAdvCalcDat(Planilha2!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CQ2:CQ28">_xll.PIAdvCalcDat(Planilha2!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.006373093929298</v>
       </c>
       <c r="CR2" s="3">
-        <f t="array" ref="CR2:CR25">_xll.PIAdvCalcDat(Planilha2!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CR2:CR28">_xll.PIAdvCalcDat(Planilha2!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>61.090263343567827</v>
       </c>
       <c r="CS2" s="3">
-        <f t="array" ref="CS2:CS25">_xll.PIAdvCalcDat(Planilha2!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CS2:CS28">_xll.PIAdvCalcDat(Planilha2!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.350341923468939</v>
       </c>
       <c r="CT2" s="3">
-        <f t="array" ref="CT2:CT25">_xll.PIAdvCalcDat(Planilha2!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CT2:CT28">_xll.PIAdvCalcDat(Planilha2!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>63.306905208473481</v>
       </c>
       <c r="CU2" s="3">
-        <f t="array" ref="CU2:CU25">_xll.PIAdvCalcDat(Planilha2!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CU2:CU28">_xll.PIAdvCalcDat(Planilha2!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.212585054062437</v>
       </c>
       <c r="CV2" s="3">
-        <f t="array" ref="CV2:CV25">_xll.PIAdvCalcDat(Planilha2!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CV2:CV28">_xll.PIAdvCalcDat(Planilha2!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.559981381715232</v>
       </c>
       <c r="CW2" s="3">
-        <f t="array" ref="CW2:CW25">_xll.PIAdvCalcDat(Planilha2!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CW2:CW28">_xll.PIAdvCalcDat(Planilha2!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.372578254112831</v>
       </c>
       <c r="CX2" s="3">
-        <f t="array" ref="CX2:CX25">_xll.PIAdvCalcDat(Planilha2!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CX2:CX28">_xll.PIAdvCalcDat(Planilha2!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.893767221685408</v>
       </c>
       <c r="CY2" s="3">
-        <f t="array" ref="CY2:CY25">_xll.PIAdvCalcDat(Planilha2!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CY2:CY28">_xll.PIAdvCalcDat(Planilha2!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.609749483465002</v>
       </c>
       <c r="CZ2" s="3">
-        <f t="array" ref="CZ2:CZ25">_xll.PIAdvCalcDat(Planilha2!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="CZ2:CZ28">_xll.PIAdvCalcDat(Planilha2!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.277221774367739</v>
       </c>
       <c r="DA2" s="3">
-        <f t="array" ref="DA2:DA25">_xll.PIAdvCalcDat(Planilha2!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DA2:DA28">_xll.PIAdvCalcDat(Planilha2!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.200066854164355</v>
       </c>
       <c r="DB2" s="3">
-        <f t="array" ref="DB2:DB25">_xll.PIAdvCalcDat(Planilha2!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DB2:DB28">_xll.PIAdvCalcDat(Planilha2!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.036537466123121</v>
       </c>
       <c r="DC2" s="3">
-        <f t="array" ref="DC2:DC25">_xll.PIAdvCalcDat(Planilha2!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DC2:DC28">_xll.PIAdvCalcDat(Planilha2!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.184861604894429</v>
       </c>
       <c r="DD2" s="3">
-        <f t="array" ref="DD2:DD25">_xll.PIAdvCalcDat(Planilha2!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DD2:DD28">_xll.PIAdvCalcDat(Planilha2!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.529160873434073</v>
       </c>
       <c r="DE2" s="3">
-        <f t="array" ref="DE2:DE25">_xll.PIAdvCalcDat(Planilha2!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DE2:DE28">_xll.PIAdvCalcDat(Planilha2!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.258967116525845</v>
       </c>
       <c r="DF2" s="3">
-        <f t="array" ref="DF2:DF25">_xll.PIAdvCalcDat(Planilha2!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DF2:DF28">_xll.PIAdvCalcDat(Planilha2!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.339209131765159</v>
       </c>
       <c r="DG2" s="3">
-        <f t="array" ref="DG2:DG25">_xll.PIAdvCalcDat(Planilha2!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DG2:DG28">_xll.PIAdvCalcDat(Planilha2!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.293632028687675</v>
       </c>
       <c r="DH2" s="3">
-        <f t="array" ref="DH2:DH25">_xll.PIAdvCalcDat(Planilha2!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DH2:DH28">_xll.PIAdvCalcDat(Planilha2!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>57.88067158004673</v>
       </c>
       <c r="DI2" s="3">
-        <f t="array" ref="DI2:DI25">_xll.PIAdvCalcDat(Planilha2!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DI2:DI28">_xll.PIAdvCalcDat(Planilha2!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.227049117097003</v>
       </c>
       <c r="DJ2" s="3">
-        <f t="array" ref="DJ2:DJ25">_xll.PIAdvCalcDat(Planilha2!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DJ2:DJ28">_xll.PIAdvCalcDat(Planilha2!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>51.130745928818129</v>
       </c>
       <c r="DK2" s="3">
-        <f t="array" ref="DK2:DK25">_xll.PIAdvCalcDat(Planilha2!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DK2:DK28">_xll.PIAdvCalcDat(Planilha2!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.490414680841141</v>
       </c>
       <c r="DL2" s="3">
-        <f t="array" ref="DL2:DL25">_xll.PIAdvCalcDat(Planilha2!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DL2:DL28">_xll.PIAdvCalcDat(Planilha2!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.819504128821286</v>
       </c>
       <c r="DM2" s="3">
-        <f t="array" ref="DM2:DM25">_xll.PIAdvCalcDat(Planilha2!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DM2:DM28">_xll.PIAdvCalcDat(Planilha2!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>41.266936132820433</v>
       </c>
       <c r="DN2" s="3">
-        <f t="array" ref="DN2:DN25">_xll.PIAdvCalcDat(Planilha2!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DN2:DN28">_xll.PIAdvCalcDat(Planilha2!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.417407433745311</v>
       </c>
       <c r="DO2" s="3">
-        <f t="array" ref="DO2:DO25">_xll.PIAdvCalcDat(Planilha2!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DO2:DO28">_xll.PIAdvCalcDat(Planilha2!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.752063652254499</v>
       </c>
       <c r="DP2" s="3">
-        <f t="array" ref="DP2:DP25">_xll.PIAdvCalcDat(Planilha2!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DP2:DP28">_xll.PIAdvCalcDat(Planilha2!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.745807784222876</v>
       </c>
       <c r="DQ2" s="3">
-        <f t="array" ref="DQ2:DQ25">_xll.PIAdvCalcDat(Planilha2!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DQ2:DQ28">_xll.PIAdvCalcDat(Planilha2!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.242984060284087</v>
       </c>
       <c r="DR2" s="3">
-        <f t="array" ref="DR2:DR25">_xll.PIAdvCalcDat(Planilha2!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DR2:DR28">_xll.PIAdvCalcDat(Planilha2!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.246290319058183</v>
       </c>
       <c r="DS2" s="3">
-        <f t="array" ref="DS2:DS25">_xll.PIAdvCalcDat(Planilha2!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DS2:DS28">_xll.PIAdvCalcDat(Planilha2!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.646415916649069</v>
       </c>
       <c r="DT2" s="3">
-        <f t="array" ref="DT2:DT25">_xll.PIAdvCalcDat(Planilha2!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DT2:DT28">_xll.PIAdvCalcDat(Planilha2!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>56.655755815949554</v>
       </c>
       <c r="DU2" s="3">
-        <f t="array" ref="DU2:DU25">_xll.PIAdvCalcDat(Planilha2!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DU2:DU28">_xll.PIAdvCalcDat(Planilha2!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.64070251165343</v>
       </c>
       <c r="DV2" s="3">
-        <f t="array" ref="DV2:DV25">_xll.PIAdvCalcDat(Planilha2!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DV2:DV28">_xll.PIAdvCalcDat(Planilha2!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>49.300183738855758</v>
       </c>
       <c r="DW2" s="3">
-        <f t="array" ref="DW2:DW25">_xll.PIAdvCalcDat(Planilha2!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DW2:DW28">_xll.PIAdvCalcDat(Planilha2!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>54.136318763657584</v>
       </c>
       <c r="DX2" s="3">
-        <f t="array" ref="DX2:DX25">_xll.PIAdvCalcDat(Planilha2!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DX2:DX28">_xll.PIAdvCalcDat(Planilha2!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>45.039392756362815</v>
       </c>
       <c r="DY2" s="3">
-        <f t="array" ref="DY2:DY25">_xll.PIAdvCalcDat(Planilha2!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DY2:DY28">_xll.PIAdvCalcDat(Planilha2!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>40.592907882261798</v>
       </c>
       <c r="DZ2" s="3">
-        <f t="array" ref="DZ2:DZ25">_xll.PIAdvCalcDat(Planilha2!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="DZ2:DZ28">_xll.PIAdvCalcDat(Planilha2!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>46.248666001994685</v>
       </c>
       <c r="EA2" s="3">
-        <f t="array" ref="EA2:EA25">_xll.PIAdvCalcDat(Planilha2!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EA2:EA28">_xll.PIAdvCalcDat(Planilha2!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.894452511372911</v>
       </c>
       <c r="EB2" s="3">
-        <f t="array" ref="EB2:EB25">_xll.PIAdvCalcDat(Planilha2!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EB2:EB28">_xll.PIAdvCalcDat(Planilha2!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.073090718655784</v>
       </c>
       <c r="EC2" s="3">
-        <f t="array" ref="EC2:EC25">_xll.PIAdvCalcDat(Planilha2!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EC2:EC28">_xll.PIAdvCalcDat(Planilha2!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.65680917167284</v>
       </c>
       <c r="ED2" s="3">
-        <f t="array" ref="ED2:ED25">_xll.PIAdvCalcDat(Planilha2!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="ED2:ED28">_xll.PIAdvCalcDat(Planilha2!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>47.299400116772297</v>
       </c>
       <c r="EE2" s="3">
-        <f t="array" ref="EE2:EE25">_xll.PIAdvCalcDat(Planilha2!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EE2:EE28">_xll.PIAdvCalcDat(Planilha2!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.593098770329895</v>
       </c>
       <c r="EF2" s="3">
-        <f t="array" ref="EF2:EF25">_xll.PIAdvCalcDat(Planilha2!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EF2:EF28">_xll.PIAdvCalcDat(Planilha2!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>53.115160004567294</v>
       </c>
       <c r="EG2" s="3">
-        <f t="array" ref="EG2:EG25">_xll.PIAdvCalcDat(Planilha2!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EG2:EG28">_xll.PIAdvCalcDat(Planilha2!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>42.501352820379836</v>
       </c>
       <c r="EH2" s="3">
-        <f t="array" ref="EH2:EH25">_xll.PIAdvCalcDat(Planilha2!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EH2:EH28">_xll.PIAdvCalcDat(Planilha2!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>52.830223522505946</v>
       </c>
       <c r="EI2" s="3">
-        <f t="array" ref="EI2:EI25">_xll.PIAdvCalcDat(Planilha2!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EI2:EI28">_xll.PIAdvCalcDat(Planilha2!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>44.90067363427886</v>
       </c>
       <c r="EJ2" s="3">
-        <f t="array" ref="EJ2:EJ25">_xll.PIAdvCalcDat(Planilha2!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EJ2:EJ28">_xll.PIAdvCalcDat(Planilha2!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>48.905811596490096</v>
       </c>
       <c r="EK2" s="3">
-        <f t="array" ref="EK2:EK25">_xll.PIAdvCalcDat(Planilha2!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
+        <f t="array" ref="EK2:EK28">_xll.PIAdvCalcDat(Planilha2!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"")</f>
         <v>50.167333255949472</v>
       </c>
     </row>
@@ -11593,13 +11593,1279 @@
       </c>
     </row>
     <row r="26" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B26" s="3">
+        <v>74.502878488171802</v>
+      </c>
+      <c r="C26" s="3">
+        <v>72.401931042577402</v>
+      </c>
+      <c r="D26" s="3">
+        <v>69.292467201173409</v>
+      </c>
+      <c r="E26" s="3">
+        <v>75.737922701628307</v>
+      </c>
+      <c r="F26" s="3">
+        <v>69.823869792681748</v>
+      </c>
+      <c r="G26" s="3">
+        <v>68.038395826610781</v>
+      </c>
+      <c r="H26" s="3">
+        <v>71.615654674291164</v>
+      </c>
+      <c r="I26" s="3">
+        <v>65.296006475176128</v>
+      </c>
+      <c r="J26" s="3">
+        <v>69.235081838536772</v>
+      </c>
+      <c r="K26" s="3">
+        <v>72.568680665714979</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M26" s="3">
+        <v>70.843132093090389</v>
+      </c>
+      <c r="N26" s="3">
+        <v>63.458848498876797</v>
+      </c>
+      <c r="O26" s="3">
+        <v>74.112054472762722</v>
+      </c>
+      <c r="P26" s="3">
+        <v>72.624067036995285</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>67.009264938097459</v>
+      </c>
+      <c r="R26" s="3">
+        <v>71.797772969085358</v>
+      </c>
+      <c r="S26" s="3">
+        <v>66.494854699054173</v>
+      </c>
+      <c r="T26" s="3">
+        <v>70.429594574891055</v>
+      </c>
+      <c r="U26" s="3">
+        <v>67.991057319654203</v>
+      </c>
+      <c r="V26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W26" s="3">
+        <v>67.728122749053185</v>
+      </c>
+      <c r="X26" s="3">
+        <v>66.327987680795502</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>66.414975260655623</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>66.9378510664815</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>65.916344997233352</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>64.317569478397587</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>67.629318996846379</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>52.608171777381791</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>70.068953716297884</v>
+      </c>
+      <c r="AF26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>29.592717593958891</v>
+      </c>
+      <c r="AH26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>54.302330999259198</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>54.600219969902746</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>55.640073805710728</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>55.46807900008622</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>55.283418244915538</v>
+      </c>
+      <c r="AP26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>55.307282972415422</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>55.632375476004064</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>55.412219236910289</v>
+      </c>
+      <c r="AT26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>53.457717488701931</v>
+      </c>
+      <c r="AV26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>55.335081372942241</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>54.742269257450346</v>
+      </c>
+      <c r="AY26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ26" s="3">
+        <v>53.294894349407144</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>55.08750000932163</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>55.960548722078585</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>55.506933614611626</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>57.856764577003716</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>28.254285662514821</v>
+      </c>
+      <c r="BF26" s="3">
+        <v>54.101602144330464</v>
+      </c>
+      <c r="BG26" s="3">
+        <v>53.887397269680072</v>
+      </c>
+      <c r="BH26" s="3">
+        <v>53.250141944993523</v>
+      </c>
+      <c r="BI26" s="3">
+        <v>50.681240664034654</v>
+      </c>
+      <c r="BJ26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK26" s="3">
+        <v>54.852968015627226</v>
+      </c>
+      <c r="BL26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM26" s="3">
+        <v>59.30310841971054</v>
+      </c>
+      <c r="BN26" s="3">
+        <v>60.6392054132304</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>68.587952206690304</v>
+      </c>
+      <c r="BP26" s="3">
+        <v>73.279939078917636</v>
+      </c>
+      <c r="BQ26" s="3">
+        <v>62.812518425510355</v>
+      </c>
+      <c r="BR26" s="3">
+        <v>69.911086201721218</v>
+      </c>
+      <c r="BS26" s="3">
+        <v>66.482279843953393</v>
+      </c>
+      <c r="BT26" s="3">
+        <v>55.478669757685388</v>
+      </c>
+      <c r="BU26" s="3">
+        <v>54.50531764613045</v>
+      </c>
+      <c r="BV26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW26" s="3">
+        <v>53.989891661633656</v>
+      </c>
+      <c r="BX26" s="3">
+        <v>53.980175992732114</v>
+      </c>
+      <c r="BY26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ26" s="3">
+        <v>54.33061611663674</v>
+      </c>
+      <c r="CA26" s="3">
+        <v>58.79815041651414</v>
+      </c>
+      <c r="CB26" s="3">
+        <v>54.187568232009973</v>
+      </c>
+      <c r="CC26" s="3">
+        <v>52.788773840714541</v>
+      </c>
+      <c r="CD26" s="3">
+        <v>55.620050117911312</v>
+      </c>
+      <c r="CE26" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF26" s="3">
+        <v>55.596826797167175</v>
+      </c>
+      <c r="CG26" s="3">
+        <v>53.559768920298474</v>
+      </c>
+      <c r="CH26" s="3">
+        <v>64.467070550097276</v>
+      </c>
+      <c r="CI26" s="3">
+        <v>65.608509440463763</v>
+      </c>
+      <c r="CJ26" s="3">
+        <v>64.112485107951358</v>
+      </c>
+      <c r="CK26" s="3">
+        <v>68.467125192702326</v>
+      </c>
+      <c r="CL26" s="3">
+        <v>66.364587944892875</v>
+      </c>
+      <c r="CM26" s="3">
+        <v>65.626639635035758</v>
+      </c>
+      <c r="CN26" s="3">
+        <v>63.973119359689285</v>
+      </c>
+      <c r="CO26" s="3">
+        <v>69.983606550566194</v>
+      </c>
+      <c r="CP26" s="3">
+        <v>69.767746467156641</v>
+      </c>
+      <c r="CQ26" s="3">
+        <v>66.067046022239381</v>
+      </c>
+      <c r="CR26" s="3">
+        <v>63.736002657572847</v>
+      </c>
+      <c r="CS26" s="3">
+        <v>67.116872027716198</v>
+      </c>
+      <c r="CT26" s="3">
+        <v>66.200015542742435</v>
+      </c>
+      <c r="CU26" s="3">
+        <v>60.693540804944881</v>
+      </c>
+      <c r="CV26" s="3">
+        <v>57.679196328585896</v>
+      </c>
+      <c r="CW26" s="3">
+        <v>57.645528816711455</v>
+      </c>
+      <c r="CX26" s="3">
+        <v>56.51053563827643</v>
+      </c>
+      <c r="CY26" s="3">
+        <v>52.314831489085385</v>
+      </c>
+      <c r="CZ26" s="3">
+        <v>52.858412716780762</v>
+      </c>
+      <c r="DA26" s="3">
+        <v>58.767901195147616</v>
+      </c>
+      <c r="DB26" s="3">
+        <v>58.485095540429377</v>
+      </c>
+      <c r="DC26" s="3">
+        <v>56.083671276233375</v>
+      </c>
+      <c r="DD26" s="3">
+        <v>54.35838028003284</v>
+      </c>
+      <c r="DE26" s="3">
+        <v>47.2419648478784</v>
+      </c>
+      <c r="DF26" s="3">
+        <v>54.837977136364422</v>
+      </c>
+      <c r="DG26" s="3">
+        <v>58.236290693665367</v>
+      </c>
+      <c r="DH26" s="3">
+        <v>64.397226186042289</v>
+      </c>
+      <c r="DI26" s="3">
+        <v>57.946439438409506</v>
+      </c>
+      <c r="DJ26" s="3">
+        <v>57.763649894269122</v>
+      </c>
+      <c r="DK26" s="3">
+        <v>56.784830051718409</v>
+      </c>
+      <c r="DL26" s="3">
+        <v>59.608462055047077</v>
+      </c>
+      <c r="DM26" s="3">
+        <v>54.184423281094688</v>
+      </c>
+      <c r="DN26" s="3">
+        <v>60.73411998167385</v>
+      </c>
+      <c r="DO26" s="3">
+        <v>62.18403126751285</v>
+      </c>
+      <c r="DP26" s="3">
+        <v>56.072530857469673</v>
+      </c>
+      <c r="DQ26" s="3">
+        <v>56.659865728800732</v>
+      </c>
+      <c r="DR26" s="3">
+        <v>58.01099734766165</v>
+      </c>
+      <c r="DS26" s="3">
+        <v>56.47857139224098</v>
+      </c>
+      <c r="DT26" s="3">
+        <v>55.327825392960818</v>
+      </c>
+      <c r="DU26" s="3">
+        <v>57.720796917330837</v>
+      </c>
+      <c r="DV26" s="3">
+        <v>58.074981600902674</v>
+      </c>
+      <c r="DW26" s="3">
+        <v>61.452598793838725</v>
+      </c>
+      <c r="DX26" s="3">
+        <v>48.787159890336405</v>
+      </c>
+      <c r="DY26" s="3">
+        <v>48.639196874482799</v>
+      </c>
+      <c r="DZ26" s="3">
+        <v>56.162117648405186</v>
+      </c>
+      <c r="EA26" s="3">
+        <v>54.492541183660059</v>
+      </c>
+      <c r="EB26" s="3">
+        <v>56.634405987805657</v>
+      </c>
+      <c r="EC26" s="3">
+        <v>57.271241831846261</v>
+      </c>
+      <c r="ED26" s="3">
+        <v>52.14400675790408</v>
+      </c>
+      <c r="EE26" s="3">
+        <v>54.89450112972829</v>
+      </c>
+      <c r="EF26" s="3">
+        <v>59.207317018440499</v>
+      </c>
+      <c r="EG26" s="3">
+        <v>54.7810906499965</v>
+      </c>
+      <c r="EH26" s="3">
+        <v>58.652553510062305</v>
+      </c>
+      <c r="EI26" s="3">
+        <v>53.617715173521326</v>
+      </c>
+      <c r="EJ26" s="3">
+        <v>55.385407331048221</v>
+      </c>
+      <c r="EK26" s="3">
+        <v>55.260132747413834</v>
+      </c>
     </row>
     <row r="27" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B27" s="3">
+        <v>64.275213414040536</v>
+      </c>
+      <c r="C27" s="3">
+        <v>65.079667569458323</v>
+      </c>
+      <c r="D27" s="3">
+        <v>61.97718933830803</v>
+      </c>
+      <c r="E27" s="3">
+        <v>66.628473711053559</v>
+      </c>
+      <c r="F27" s="3">
+        <v>62.539197224849204</v>
+      </c>
+      <c r="G27" s="3">
+        <v>61.872505037509661</v>
+      </c>
+      <c r="H27" s="3">
+        <v>64.336581315360121</v>
+      </c>
+      <c r="I27" s="3">
+        <v>58.017417680113269</v>
+      </c>
+      <c r="J27" s="3">
+        <v>61.880370676855208</v>
+      </c>
+      <c r="K27" s="3">
+        <v>63.089416738158519</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M27" s="3">
+        <v>63.108508900505413</v>
+      </c>
+      <c r="N27" s="3">
+        <v>57.792242788330192</v>
+      </c>
+      <c r="O27" s="3">
+        <v>65.689093319991429</v>
+      </c>
+      <c r="P27" s="3">
+        <v>64.55600408661347</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>60.478687520773306</v>
+      </c>
+      <c r="R27" s="3">
+        <v>64.146765981234552</v>
+      </c>
+      <c r="S27" s="3">
+        <v>59.240127335869325</v>
+      </c>
+      <c r="T27" s="3">
+        <v>62.998558655039815</v>
+      </c>
+      <c r="U27" s="3">
+        <v>61.07754181811594</v>
+      </c>
+      <c r="V27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W27" s="3">
+        <v>60.859944374073862</v>
+      </c>
+      <c r="X27" s="3">
+        <v>60.78412895474608</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>59.751921140433758</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>60.567020289963772</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>60.212656927972063</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>58.147903872738908</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>60.615652798164447</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>49.004572980259105</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>67.809994026973953</v>
+      </c>
+      <c r="AF27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>15.095063177518558</v>
+      </c>
+      <c r="AH27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>50.004195666935132</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>49.929332832796938</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>50.577060672722205</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>50.814358633950626</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>50.724110436780812</v>
+      </c>
+      <c r="AP27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>50.586463692686515</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>50.937866916395215</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>50.888435348940774</v>
+      </c>
+      <c r="AT27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU27" s="3">
+        <v>49.517558805943636</v>
+      </c>
+      <c r="AV27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW27" s="3">
+        <v>51.07499999419818</v>
+      </c>
+      <c r="AX27" s="3">
+        <v>51.244312285469121</v>
+      </c>
+      <c r="AY27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ27" s="3">
+        <v>49.959530801484078</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>52.318200027465821</v>
+      </c>
+      <c r="BB27" s="3">
+        <v>52.248680102661517</v>
+      </c>
+      <c r="BC27" s="3">
+        <v>52.628663774194386</v>
+      </c>
+      <c r="BD27" s="3">
+        <v>55.78267673950667</v>
+      </c>
+      <c r="BE27" s="3">
+        <v>27.799999237060547</v>
+      </c>
+      <c r="BF27" s="3">
+        <v>50.316188831554499</v>
+      </c>
+      <c r="BG27" s="3">
+        <v>49.77928900976638</v>
+      </c>
+      <c r="BH27" s="3">
+        <v>49.279081636545612</v>
+      </c>
+      <c r="BI27" s="3">
+        <v>47.821711391276111</v>
+      </c>
+      <c r="BJ27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK27" s="3">
+        <v>51.222499999999997</v>
+      </c>
+      <c r="BL27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM27" s="3">
+        <v>55.473068641028071</v>
+      </c>
+      <c r="BN27" s="3">
+        <v>56.931086523934852</v>
+      </c>
+      <c r="BO27" s="3">
+        <v>62.811974511740964</v>
+      </c>
+      <c r="BP27" s="3">
+        <v>65.996329696090129</v>
+      </c>
+      <c r="BQ27" s="3">
+        <v>57.37409897198431</v>
+      </c>
+      <c r="BR27" s="3">
+        <v>63.062329452339263</v>
+      </c>
+      <c r="BS27" s="3">
+        <v>60.453274116361477</v>
+      </c>
+      <c r="BT27" s="3">
+        <v>51.441970328153189</v>
+      </c>
+      <c r="BU27" s="3">
+        <v>51.045428363258715</v>
+      </c>
+      <c r="BV27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW27" s="3">
+        <v>50.873300486597522</v>
+      </c>
+      <c r="BX27" s="3">
+        <v>50.631741464091625</v>
+      </c>
+      <c r="BY27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ27" s="3">
+        <v>50.689581087401294</v>
+      </c>
+      <c r="CA27" s="3">
+        <v>52.449478354077407</v>
+      </c>
+      <c r="CB27" s="3">
+        <v>49.228593772649766</v>
+      </c>
+      <c r="CC27" s="3">
+        <v>49.00091846902572</v>
+      </c>
+      <c r="CD27" s="3">
+        <v>51.00817717319859</v>
+      </c>
+      <c r="CE27" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF27" s="3">
+        <v>51.646223558039821</v>
+      </c>
+      <c r="CG27" s="3">
+        <v>49.367729580321281</v>
+      </c>
+      <c r="CH27" s="3">
+        <v>58.243146947086203</v>
+      </c>
+      <c r="CI27" s="3">
+        <v>58.861163305924698</v>
+      </c>
+      <c r="CJ27" s="3">
+        <v>58.887143847415047</v>
+      </c>
+      <c r="CK27" s="3">
+        <v>61.010975384253967</v>
+      </c>
+      <c r="CL27" s="3">
+        <v>60.203032378240579</v>
+      </c>
+      <c r="CM27" s="3">
+        <v>59.23157894697475</v>
+      </c>
+      <c r="CN27" s="3">
+        <v>60.168430045847195</v>
+      </c>
+      <c r="CO27" s="3">
+        <v>62.437270763495633</v>
+      </c>
+      <c r="CP27" s="3">
+        <v>62.975231767768626</v>
+      </c>
+      <c r="CQ27" s="3">
+        <v>59.708163936983375</v>
+      </c>
+      <c r="CR27" s="3">
+        <v>58.359359427856283</v>
+      </c>
+      <c r="CS27" s="3">
+        <v>60.597040800415968</v>
+      </c>
+      <c r="CT27" s="3">
+        <v>60.851356903497539</v>
+      </c>
+      <c r="CU27" s="3">
+        <v>56.19715663496612</v>
+      </c>
+      <c r="CV27" s="3">
+        <v>49.606997132053081</v>
+      </c>
+      <c r="CW27" s="3">
+        <v>52.481069278665011</v>
+      </c>
+      <c r="CX27" s="3">
+        <v>46.822062985880393</v>
+      </c>
+      <c r="CY27" s="3">
+        <v>48.697571051272895</v>
+      </c>
+      <c r="CZ27" s="3">
+        <v>48.957865139071863</v>
+      </c>
+      <c r="DA27" s="3">
+        <v>50.173538025824413</v>
+      </c>
+      <c r="DB27" s="3">
+        <v>50.504902864362663</v>
+      </c>
+      <c r="DC27" s="3">
+        <v>48.470681913460353</v>
+      </c>
+      <c r="DD27" s="3">
+        <v>49.076875572530632</v>
+      </c>
+      <c r="DE27" s="3">
+        <v>44.26907716808519</v>
+      </c>
+      <c r="DF27" s="3">
+        <v>48.274407113855816</v>
+      </c>
+      <c r="DG27" s="3">
+        <v>50.282936487248335</v>
+      </c>
+      <c r="DH27" s="3">
+        <v>56.111576428603264</v>
+      </c>
+      <c r="DI27" s="3">
+        <v>49.443194244528833</v>
+      </c>
+      <c r="DJ27" s="3">
+        <v>50.491634497098353</v>
+      </c>
+      <c r="DK27" s="3">
+        <v>50.635843632544997</v>
+      </c>
+      <c r="DL27" s="3">
+        <v>49.593611459275117</v>
+      </c>
+      <c r="DM27" s="3">
+        <v>46.555174814502699</v>
+      </c>
+      <c r="DN27" s="3">
+        <v>52.151885844394947</v>
+      </c>
+      <c r="DO27" s="3">
+        <v>52.032473706697161</v>
+      </c>
+      <c r="DP27" s="3">
+        <v>50.517469019585931</v>
+      </c>
+      <c r="DQ27" s="3">
+        <v>47.619372812135083</v>
+      </c>
+      <c r="DR27" s="3">
+        <v>49.923396979303163</v>
+      </c>
+      <c r="DS27" s="3">
+        <v>48.87104462600211</v>
+      </c>
+      <c r="DT27" s="3">
+        <v>49.723929700468936</v>
+      </c>
+      <c r="DU27" s="3">
+        <v>49.631634808541214</v>
+      </c>
+      <c r="DV27" s="3">
+        <v>51.207707480479606</v>
+      </c>
+      <c r="DW27" s="3">
+        <v>53.352750415945579</v>
+      </c>
+      <c r="DX27" s="3">
+        <v>45.33389351681835</v>
+      </c>
+      <c r="DY27" s="3">
+        <v>44.1600178983429</v>
+      </c>
+      <c r="DZ27" s="3">
+        <v>48.554225351608977</v>
+      </c>
+      <c r="EA27" s="3">
+        <v>47.296928475226366</v>
+      </c>
+      <c r="EB27" s="3">
+        <v>49.536237353829023</v>
+      </c>
+      <c r="EC27" s="3">
+        <v>47.724992463324597</v>
+      </c>
+      <c r="ED27" s="3">
+        <v>47.895378694709777</v>
+      </c>
+      <c r="EE27" s="3">
+        <v>48.245909236677633</v>
+      </c>
+      <c r="EF27" s="3">
+        <v>48.76235976878317</v>
+      </c>
+      <c r="EG27" s="3">
+        <v>46.87273965408346</v>
+      </c>
+      <c r="EH27" s="3">
+        <v>51.971166931234528</v>
+      </c>
+      <c r="EI27" s="3">
+        <v>48.470636261196255</v>
+      </c>
+      <c r="EJ27" s="3">
+        <v>48.749305239806752</v>
+      </c>
+      <c r="EK27" s="3">
+        <v>46.676335010535894</v>
+      </c>
     </row>
     <row r="28" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B28" s="3">
+        <v>55.254518331857675</v>
+      </c>
+      <c r="C28" s="3">
+        <v>55.673555727250466</v>
+      </c>
+      <c r="D28" s="3">
+        <v>54.465778215712</v>
+      </c>
+      <c r="E28" s="3">
+        <v>57.840913258057085</v>
+      </c>
+      <c r="F28" s="3">
+        <v>54.365549590041809</v>
+      </c>
+      <c r="G28" s="3">
+        <v>53.827128050329065</v>
+      </c>
+      <c r="H28" s="3">
+        <v>56.323398340845898</v>
+      </c>
+      <c r="I28" s="3">
+        <v>51.875994448573181</v>
+      </c>
+      <c r="J28" s="3">
+        <v>56.031165767240481</v>
+      </c>
+      <c r="K28" s="3">
+        <v>55.931541847045018</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M28" s="3">
+        <v>55.017836111402033</v>
+      </c>
+      <c r="N28" s="3">
+        <v>52.393224866647273</v>
+      </c>
+      <c r="O28" s="3">
+        <v>57.481819667137785</v>
+      </c>
+      <c r="P28" s="3">
+        <v>56.152966683812231</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>53.434209260707185</v>
+      </c>
+      <c r="R28" s="3">
+        <v>55.663733570034466</v>
+      </c>
+      <c r="S28" s="3">
+        <v>51.879484922040277</v>
+      </c>
+      <c r="T28" s="3">
+        <v>54.724017856746457</v>
+      </c>
+      <c r="U28" s="3">
+        <v>52.613883526559903</v>
+      </c>
+      <c r="V28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="W28" s="3">
+        <v>53.747009735895674</v>
+      </c>
+      <c r="X28" s="3">
+        <v>53.633938293120593</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>51.59890112060954</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>53.422275540161742</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>53.273529924126109</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>50.877059208481846</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>52.35045583586281</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>43.266609199409324</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>69.221277331501469</v>
+      </c>
+      <c r="AF28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AH28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>44.275873441115706</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>44.332944178251466</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>44.601688218329848</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>45.129887758435601</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>45.430571987261615</v>
+      </c>
+      <c r="AP28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>45.256631492310127</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>44.487792822935432</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>44.551925285277036</v>
+      </c>
+      <c r="AT28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>43.597210283329446</v>
+      </c>
+      <c r="AV28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>45.191810841103873</v>
+      </c>
+      <c r="AX28" s="3">
+        <v>45.048545193830392</v>
+      </c>
+      <c r="AY28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ28" s="3">
+        <v>43.588241990842775</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>45.154591789050976</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>45.528836679930734</v>
+      </c>
+      <c r="BC28" s="3">
+        <v>44.978955469556304</v>
+      </c>
+      <c r="BD28" s="3">
+        <v>49.48397036927549</v>
+      </c>
+      <c r="BE28" s="3">
+        <v>27.799999237060547</v>
+      </c>
+      <c r="BF28" s="3">
+        <v>44.148418984394297</v>
+      </c>
+      <c r="BG28" s="3">
+        <v>44.766071417975049</v>
+      </c>
+      <c r="BH28" s="3">
+        <v>43.750714238484697</v>
+      </c>
+      <c r="BI28" s="3">
+        <v>43.04791309020564</v>
+      </c>
+      <c r="BJ28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK28" s="3">
+        <v>44.90707690899189</v>
+      </c>
+      <c r="BL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="3">
+        <v>49.976538185656402</v>
+      </c>
+      <c r="BN28" s="3">
+        <v>51.649607180389317</v>
+      </c>
+      <c r="BO28" s="3">
+        <v>53.968867131725212</v>
+      </c>
+      <c r="BP28" s="3">
+        <v>56.052494620733064</v>
+      </c>
+      <c r="BQ28" s="3">
+        <v>51.47640937004865</v>
+      </c>
+      <c r="BR28" s="3">
+        <v>54.145952011047818</v>
+      </c>
+      <c r="BS28" s="3">
+        <v>52.658817118241927</v>
+      </c>
+      <c r="BT28" s="3">
+        <v>45.295962379842372</v>
+      </c>
+      <c r="BU28" s="3">
+        <v>45.032004533136288</v>
+      </c>
+      <c r="BV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="3">
+        <v>44.165822787443979</v>
+      </c>
+      <c r="BX28" s="3">
+        <v>44.203498117976814</v>
+      </c>
+      <c r="BY28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ28" s="3">
+        <v>44.843654743911046</v>
+      </c>
+      <c r="CA28" s="3">
+        <v>45.669363163014083</v>
+      </c>
+      <c r="CB28" s="3">
+        <v>43.660456291169723</v>
+      </c>
+      <c r="CC28" s="3">
+        <v>43.756685431295523</v>
+      </c>
+      <c r="CD28" s="3">
+        <v>45.274622784175449</v>
+      </c>
+      <c r="CE28" s="3" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF28" s="3">
+        <v>44.790074497535272</v>
+      </c>
+      <c r="CG28" s="3">
+        <v>43.721047846738053</v>
+      </c>
+      <c r="CH28" s="3">
+        <v>50.494985611592199</v>
+      </c>
+      <c r="CI28" s="3">
+        <v>51.149818234759501</v>
+      </c>
+      <c r="CJ28" s="3">
+        <v>50.853272181885579</v>
+      </c>
+      <c r="CK28" s="3">
+        <v>51.983312454637925</v>
+      </c>
+      <c r="CL28" s="3">
+        <v>51.940766092061487</v>
+      </c>
+      <c r="CM28" s="3">
+        <v>51.06277993397363</v>
+      </c>
+      <c r="CN28" s="3">
+        <v>52.084491686559652</v>
+      </c>
+      <c r="CO28" s="3">
+        <v>53.608758641788107</v>
+      </c>
+      <c r="CP28" s="3">
+        <v>54.533177704877048</v>
+      </c>
+      <c r="CQ28" s="3">
+        <v>52.090694578419843</v>
+      </c>
+      <c r="CR28" s="3">
+        <v>51.248589781598078</v>
+      </c>
+      <c r="CS28" s="3">
+        <v>52.527127124072315</v>
+      </c>
+      <c r="CT28" s="3">
+        <v>53.479332419721487</v>
+      </c>
+      <c r="CU28" s="3">
+        <v>50.960584405943557</v>
+      </c>
+      <c r="CV28" s="3">
+        <v>44.014822458766872</v>
+      </c>
+      <c r="CW28" s="3">
+        <v>43.56108863048631</v>
+      </c>
+      <c r="CX28" s="3">
+        <v>42.52034144331769</v>
+      </c>
+      <c r="CY28" s="3">
+        <v>42.110504664397716</v>
+      </c>
+      <c r="CZ28" s="3">
+        <v>40.402985249929138</v>
+      </c>
+      <c r="DA28" s="3">
+        <v>44.919119525363037</v>
+      </c>
+      <c r="DB28" s="3">
+        <v>43.493158835520447</v>
+      </c>
+      <c r="DC28" s="3">
+        <v>44.910402215965576</v>
+      </c>
+      <c r="DD28" s="3">
+        <v>43.903742159726463</v>
+      </c>
+      <c r="DE28" s="3">
+        <v>41.301989563446142</v>
+      </c>
+      <c r="DF28" s="3">
+        <v>42.50595910675672</v>
+      </c>
+      <c r="DG28" s="3">
+        <v>44.014449183691895</v>
+      </c>
+      <c r="DH28" s="3">
+        <v>51.882075083150859</v>
+      </c>
+      <c r="DI28" s="3">
+        <v>44.699076132152392</v>
+      </c>
+      <c r="DJ28" s="3">
+        <v>44.475369466181625</v>
+      </c>
+      <c r="DK28" s="3">
+        <v>44.711496773097103</v>
+      </c>
+      <c r="DL28" s="3">
+        <v>45.292292767036251</v>
+      </c>
+      <c r="DM28" s="3">
+        <v>43.449272433285991</v>
+      </c>
+      <c r="DN28" s="3">
+        <v>45.479185512471211</v>
+      </c>
+      <c r="DO28" s="3">
+        <v>46.691277209843427</v>
+      </c>
+      <c r="DP28" s="3">
+        <v>44.754269317364624</v>
+      </c>
+      <c r="DQ28" s="3">
+        <v>44.959375007947287</v>
+      </c>
+      <c r="DR28" s="3">
+        <v>44.369534838372559</v>
+      </c>
+      <c r="DS28" s="3">
+        <v>45.561262259885275</v>
+      </c>
+      <c r="DT28" s="3">
+        <v>43.045955118310999</v>
+      </c>
+      <c r="DU28" s="3">
+        <v>44.09556786703601</v>
+      </c>
+      <c r="DV28" s="3">
+        <v>43.63004900098538</v>
+      </c>
+      <c r="DW28" s="3">
+        <v>45.969646073808441</v>
+      </c>
+      <c r="DX28" s="3">
+        <v>41.439445224246676</v>
+      </c>
+      <c r="DY28" s="3">
+        <v>41.619699788764535</v>
+      </c>
+      <c r="DZ28" s="3">
+        <v>45.507432427277436</v>
+      </c>
+      <c r="EA28" s="3">
+        <v>42.417914916525014</v>
+      </c>
+      <c r="EB28" s="3">
+        <v>46.646177536462297</v>
+      </c>
+      <c r="EC28" s="3">
+        <v>44.261922409921752</v>
+      </c>
+      <c r="ED28" s="3">
+        <v>42.3710015655912</v>
+      </c>
+      <c r="EE28" s="3">
+        <v>42.804956442065659</v>
+      </c>
+      <c r="EF28" s="3">
+        <v>45.339141244685017</v>
+      </c>
+      <c r="EG28" s="3">
+        <v>42.093881210669672</v>
+      </c>
+      <c r="EH28" s="3">
+        <v>48.123423107401841</v>
+      </c>
+      <c r="EI28" s="3">
+        <v>44.391733193744678</v>
+      </c>
+      <c r="EJ28" s="3">
+        <v>44.521356606979829</v>
+      </c>
+      <c r="EK28" s="3">
+        <v>42.313863574396471</v>
+      </c>
     </row>
     <row r="29" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
